--- a/Export-JRC-Data-Catalogue.xlsx
+++ b/Export-JRC-Data-Catalogue.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzinovaccari/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC1BE290-4C0A-6748-B2B7-C6472975F8DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDD3211-78CE-DA48-B462-7F06E3FA83A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{88D5C39C-5841-064E-9461-40D1DA229C88}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{B9B58E36-6881-9548-B3F0-F837A1F7A434}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="List_of_Initiatives_AI_X_xlsx_2" localSheetId="0">Sheet1!$A$1:$G$75</definedName>
+    <definedName name="Export_JRC_Data_Catalogue" localSheetId="0">Sheet1!$A$1:$G$81</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{5BC0834E-C11C-5148-AE7B-2BFA9F40910B}" name="List-of-Initiatives-AI-X-xlsx-2" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/lorenzinovaccari/Downloads/List-of-Initiatives-AI-X-xlsx-2.csv" decimal="," thousands="." tab="0" comma="1">
+  <connection id="1" xr16:uid="{DD660C74-1C0C-2A4E-B73D-3B87E359B71D}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/lorenzinovaccari/Downloads/Export-JRC-Data-Catalogue.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="237">
   <si>
     <t>title</t>
   </si>
@@ -60,16 +60,16 @@
     <t>url</t>
   </si>
   <si>
+    <t>AI type</t>
+  </si>
+  <si>
     <t>COFOG first level</t>
   </si>
   <si>
     <t>COFOG second level</t>
   </si>
   <si>
-    <t>AI type</t>
-  </si>
-  <si>
-    <t>Chatbot Mona</t>
+    <t>Mona - public chatbot on relevant questions for companies on the subject of the corona crisis and the economy</t>
   </si>
   <si>
     <t>Austria</t>
@@ -81,520 +81,559 @@
     <t>https://www.usp.gv.at/Portal.Node/usp/public</t>
   </si>
   <si>
+    <t>Natural language processing</t>
+  </si>
+  <si>
     <t>General public services</t>
   </si>
   <si>
     <t>Executive and legislative organs, financial and fiscal affairs, external affairs.</t>
   </si>
   <si>
-    <t>Natural language processing</t>
+    <t>AcPaas - technical documents comparison</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>https://acpaas.digipolis.be/nl/product/NLP-engine/about</t>
+  </si>
+  <si>
+    <t>General public services n.e.c.</t>
+  </si>
+  <si>
+    <t>Camera System - mobile phone usage</t>
+  </si>
+  <si>
+    <t>https://www.vias.be/nl/newsroom/succesvolle-test-met-camerasysteem-om-gsm-gebruik-achter-het-stuur-te-detecteren-/</t>
+  </si>
+  <si>
+    <t>Computer vision</t>
+  </si>
+  <si>
+    <t>Public order and safety</t>
+  </si>
+  <si>
+    <t>Police Services</t>
   </si>
   <si>
     <t>CitizenLab - citizen participation platform</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>https://www.citizenlab.co/blog/product-update/natural-language-processing-at-citizenlab-how-machine-learning-can-transform-citizen-engagement-projects/</t>
   </si>
   <si>
     <t>General services.</t>
   </si>
   <si>
-    <t>Detection holding a phone in car</t>
-  </si>
-  <si>
-    <t>https://www.vias.be/nl/newsroom/succesvolle-test-met-camerasysteem-om-gsm-gebruik-achter-het-stuur-te-detecteren-/</t>
-  </si>
-  <si>
-    <t>Public order and safety</t>
-  </si>
-  <si>
-    <t>Police Services</t>
+    <t>Flemish Infoline - automatic classification</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>https://www.innovatieveoverheidsopdrachten.be/en/projects/1700-supported-artificial-intelligence</t>
+  </si>
+  <si>
+    <t>Jobnet - reskilling, upskilling and retraining of people</t>
+  </si>
+  <si>
+    <t>https://jobbereik.vdab.be</t>
   </si>
   <si>
     <t>Machine learning</t>
   </si>
   <si>
-    <t>Jobnet AI</t>
-  </si>
-  <si>
-    <t>Regional</t>
-  </si>
-  <si>
-    <t>https://jobbereik.vdab.be</t>
-  </si>
-  <si>
-    <t>NLP for AcPaas tenders</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>https://acpaas.digipolis.be/nl/product/NLP-engine/about</t>
-  </si>
-  <si>
-    <t>General public services n.e.c.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Verontrustingen </t>
+    <t>Verontrustingen - enabling accurate predictions to detect day-care services which require further inspection</t>
   </si>
   <si>
     <t>https://www.dialogic.nl/wp-content/uploads/2018/06/VTOM-Small-Kids-Big-Data-Frank-Bongers-mei-2018.pdf</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>Social protection</t>
   </si>
   <si>
     <t>Family and children.</t>
   </si>
   <si>
+    <t>Plovdic - city Concierge Chatbot</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>https://umni.bg/en/plovdiv-city-concierge-chatbot/</t>
+  </si>
+  <si>
+    <t>Andrija - virtual assistant supporting advising suspected COVID-19 infections</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>https://andrija.ai/</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Public health services.</t>
+  </si>
+  <si>
+    <t>Hope - chatbot informing work of the Civil Protection Staff</t>
+  </si>
+  <si>
+    <t>https://www.themayor.eu/en/a/view/coronavirus-chatbot-educates-the-citizens-of-vinkovci-4796</t>
+  </si>
+  <si>
+    <t>WaterAnalytics - water quality monitoring</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>https://www.wateranalytics.eu/</t>
+  </si>
+  <si>
+    <t>Housing and community amenities</t>
+  </si>
+  <si>
+    <t>Water supply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAIN - smart Water optimising energy consumption </t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>https://www.aquatechtrade.com/news/article/video-story-digital-denmark/</t>
+  </si>
+  <si>
+    <t>Corti's AI - emergency medical services real-time speech analysis for cardiac predictions</t>
+  </si>
+  <si>
+    <t>https://www.weforum.org/agenda/2018/06/this-ai-detects-cardiac-arrests-during-emergency-calls/</t>
+  </si>
+  <si>
+    <t>Audio processing</t>
+  </si>
+  <si>
+    <t>Erhvervsstyrelsen - Detection of errors in business statements</t>
+  </si>
+  <si>
+    <t>https://joinup.ec.europa.eu/sites/default/files/custom-page/attachment/2020-07/Study%20on%20public%20sector%20data%20strategies%2C%20policies%20and%20governance%20%E2%80%93%20ANNEX%20Case%20studies.pdf</t>
+  </si>
+  <si>
+    <t>Economic affairs</t>
+  </si>
+  <si>
+    <t>General economic, commercial and labour affair</t>
+  </si>
+  <si>
+    <t>Kiri - chatbot for citizens' enquiries</t>
+  </si>
+  <si>
+    <t>https://www.frederiksberg.dk/nyheder/frederiksberg-kommune-deltager-i-forsog-med-chatbot</t>
+  </si>
+  <si>
+    <t>Enhanced Care Management - prediction model</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>https://www.kratid.ee/haigekassa-kasutuslug</t>
+  </si>
+  <si>
+    <t>Iti - chatbot for Statistics Estonia</t>
+  </si>
+  <si>
+    <t>https://www.kratid.ee/statistikaameti-kasutuslugu</t>
+  </si>
+  <si>
+    <t>OTT - predicting employment pathways</t>
+  </si>
+  <si>
+    <t>https://e-estonia.com/new-e-estonia-factsheet-national-ai-kratt-strategy/</t>
+  </si>
+  <si>
+    <t>Unemployment.</t>
+  </si>
+  <si>
+    <t>SATIKAS -  detecting the agricultural grasslands changes</t>
+  </si>
+  <si>
+    <t>https://kosmos.ut.ee/en/news/information-system-satikas-helps-detect-mowing-using-satellite-data</t>
+  </si>
+  <si>
+    <t>Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
+    <t>SUVE - chatbot for questions about the emergency situation</t>
+  </si>
+  <si>
+    <t>https://eebot.ee/</t>
+  </si>
+  <si>
+    <t>Texta Toolkit - text analytics tasks</t>
+  </si>
+  <si>
+    <t>https://www.texta.ee/home</t>
+  </si>
+  <si>
+    <t>X-Road - data excange anomalies</t>
+  </si>
+  <si>
+    <t>https://www.kratid.ee/ria-kasutuslugu</t>
+  </si>
+  <si>
+    <t>Case Fiva (RPA) - support the Financial supervisory Authority</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>https://julkaisut.valtioneuvosto.fi/bitstream/handle/10024/161688/41_19_Leading%20the%20way%20into%20the%20age%20of%20artificial%20intelligence.pdf?sequence=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamu - chatbot about immigration processes </t>
+  </si>
+  <si>
+    <t>https://migri.fi/en/chat1</t>
+  </si>
+  <si>
+    <t>OuloBot - virtual assistant for business</t>
+  </si>
+  <si>
+    <t>https://www.ouka.fi/oulu/oulubot/</t>
+  </si>
+  <si>
+    <t>ClaudIA - chatbot for the invoicing portal for purchases by public authorities</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>https://www.cio-online.com/actualites/lire-chorus-pro-aussi-aide-ses-utilisateurs-avec-un-chatbot-10199.html</t>
+  </si>
+  <si>
+    <t>French Fraud - fraud detection value declarations</t>
+  </si>
+  <si>
+    <t>https://www.aiforhumanity.fr/pdfs/MissionVillani_Report_ENG-VF.pdf</t>
+  </si>
+  <si>
+    <t>LaBonneBo√Æte - identification of companies with a high probability of hiring</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/social/BlobServlet?docId=20605&amp;langId=en</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>SignauxFaibles - predictive analysis of business difficulties</t>
+  </si>
+  <si>
+    <t>https://beta.gouv.fr/startups/signaux-faibles.html</t>
+  </si>
+  <si>
+    <t>C-19 - Interdepartmental chatbot on the topic of Corona.</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>https://chatbot.it.bund.de/</t>
+  </si>
+  <si>
+    <t>Germany's Federal Office for Migrants and Refugees - Refugee Language Detection</t>
+  </si>
+  <si>
+    <t>https://www.dw.com/en/automatic-speech-analysis-software-used-to-verify-refugees-dialects/a-37980819</t>
+  </si>
+  <si>
+    <t>Public order and safety n.e.c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Govbot -  administrative search engine for citizens' enquiries </t>
+  </si>
+  <si>
+    <t>https://publicplan.de/projekt/verwaltungssuchmaschine-nrw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERTH-MUKA - Public Organizations Multi-factor Misinformation Handling </t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>https://www.etapasproject.eu/usecases/post-4/</t>
+  </si>
+  <si>
+    <t>Home Quarantine App - Supporting the use of electronic control for home quarantine</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>https://metamorphosis.org.mk/wp-content/uploads/2021/04/algovrithms_2.0_report-2021.pdf</t>
+  </si>
+  <si>
+    <t>Health n.e.c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T√âBA - Decision on the Maternity Benefit  following the family support scheme of the Hungarian State Treasury </t>
+  </si>
+  <si>
+    <t>AI Services</t>
+  </si>
+  <si>
+    <t>V√©da-KAFIR-ROBOTZSARU (‚ÄòRobocop‚Äô) - System Operated by the Police for Traffic Safety Automated Processing</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>The Dublin Beat - citizen opinion analysis</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>https://smartdublin.ie/smart-dublin-explores-how-ai-social-media-can-help-improve-the-city-region/</t>
+  </si>
+  <si>
+    <t>R&amp;D general public services.</t>
+  </si>
+  <si>
+    <t>VDA - voicebot on calls from Irish taxpayer on tax clearance</t>
+  </si>
+  <si>
+    <t>https://www.ops2020.gov.ie/actions/innovating-for-our-future/innovation/emerging-technology/artificial-intelligence/revenue-chatbot/</t>
+  </si>
+  <si>
+    <t>Borbot - virtual assistant for museums</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>https://borbot.it/</t>
+  </si>
+  <si>
+    <t>Recreation, culture and religion</t>
+  </si>
+  <si>
+    <t>Cultural services.</t>
+  </si>
+  <si>
+    <t>R1 - humanoid robot</t>
+  </si>
+  <si>
+    <t>https://www.dongnocchi.it/news-ed-eventi/@news/robot-e-realta-virtuale-a-technology-hub-ecco-la-riabilitazione-innovativa</t>
+  </si>
+  <si>
     <t>Automated reasoning</t>
   </si>
   <si>
-    <t>Plovdic City Concierge Chatbot</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>https://umni.bg/en/plovdiv-city-concierge-chatbot/</t>
-  </si>
-  <si>
-    <t>Andrija</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>https://andrija.ai/</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Public health services.</t>
-  </si>
-  <si>
-    <t>Chatbot Hope</t>
-  </si>
-  <si>
-    <t>https://www.themayor.eu/en/a/view/coronavirus-chatbot-educates-the-citizens-of-vinkovci-4796</t>
-  </si>
-  <si>
-    <t>AI for water quality monitoring</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>https://www.wateranalytics.eu/</t>
-  </si>
-  <si>
-    <t>Housing and community amenities</t>
-  </si>
-  <si>
-    <t>Water supply.</t>
-  </si>
-  <si>
-    <t>CHAIN Smart Water</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>https://www.aquatechtrade.com/news/article/video-story-digital-denmark/</t>
-  </si>
-  <si>
-    <t>Chatbot for citizen general service enquiries</t>
-  </si>
-  <si>
-    <t>https://www.frederiksberg.dk/nyheder/frederiksberg-kommune-deltager-i-forsog-med-chatbot</t>
-  </si>
-  <si>
-    <t>Detection of errors in business statements</t>
-  </si>
-  <si>
-    <t>https://joinup.ec.europa.eu/sites/default/files/custom-page/attachment/2020-07/Study%20on%20public%20sector%20data%20strategies%2C%20policies%20and%20governance%20%E2%80%93%20ANNEX%20Case%20studies.pdf</t>
-  </si>
-  <si>
-    <t>Economic affairs</t>
-  </si>
-  <si>
-    <t>General economic, commercial and labour affair</t>
-  </si>
-  <si>
-    <t>Detection of anomalies in X-Road / public officials computers</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>https://www.kratid.ee/ria-kasutuslugu</t>
-  </si>
-  <si>
-    <t>OTT - predicting employment pathways</t>
-  </si>
-  <si>
-    <t>https://e-estonia.com/new-e-estonia-factsheet-national-ai-kratt-strategy/</t>
-  </si>
-  <si>
-    <t>Unemployment.</t>
-  </si>
-  <si>
-    <t>SATIKAS</t>
-  </si>
-  <si>
-    <t>https://kosmos.ut.ee/en/news/information-system-satikas-helps-detect-mowing-using-satellite-data</t>
-  </si>
-  <si>
-    <t>Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
-    <t>Statistics Estonia virtual assistant/chatbot ITI</t>
-  </si>
-  <si>
-    <t>https://www.kratid.ee/statistikaameti-kasutuslugu</t>
-  </si>
-  <si>
-    <t>SUVE Chatbot</t>
-  </si>
-  <si>
-    <t>https://eebot.ee/</t>
-  </si>
-  <si>
-    <t>Text analysis for removing personal data from documents</t>
-  </si>
-  <si>
-    <t>https://git.texta.ee/texta/texta-rest</t>
-  </si>
-  <si>
-    <t>Case Fiva (RPA)</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>https://julkaisut.valtioneuvosto.fi/bitstream/handle/10024/161688/41_19_Leading%20the%20way%20into%20the%20age%20of%20artificial%20intelligence.pdf?sequence=4</t>
+    <t>Medical products, appliances and equipment.</t>
+  </si>
+  <si>
+    <t>Smart Planner - navigation planning assistant</t>
+  </si>
+  <si>
+    <t>https://www.smartcommunitylab.it/app/</t>
+  </si>
+  <si>
+    <t>Planning and Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITS ITEMS - road safety </t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>https://investinlatvia.org/en/key-sectors/sectors/smart-city</t>
+  </si>
+  <si>
+    <t>Hugo - virtual Asssistant</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/cefdigital/wiki/download/attachments/61932141/2_04_Janis%20Ziedins_Artus%20Vasiljevskis_Hugo.lv-AI_powered_service.pdf?version=1&amp;modificationDate=1544438787726&amp;api=v2</t>
+  </si>
+  <si>
+    <t>Toms - chatbot facilitating customer communication with the State Revenue service</t>
+  </si>
+  <si>
+    <t>https://www.vid.gov.lv/</t>
+  </si>
+  <si>
+    <t>UNA - chatbot regarding the process of enterprise registration</t>
+  </si>
+  <si>
+    <t>https://oecd-opsi.org/innovations/una-the-first-virtual-assistant-of-public-administration-in-latvia/</t>
+  </si>
+  <si>
+    <t>FCIS - machine learning to identify suspicious patterns (trade, financial flows)</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>http://www.fntt.lt/lt/ivykiai/fntt-kartu-su-partneriais-pradeda-igyvendinti-europos-sajungos-moksliniu-tyrimu-ir-inovaciju-lesomis-remiama-projekta/3768</t>
+  </si>
+  <si>
+    <t>viLTe' - chatbot answering relevant questions regarding the COVID-19</t>
+  </si>
+  <si>
+    <t>https://koronastop.lrv.lt/</t>
+  </si>
+  <si>
+    <t>ANPR - car plate recognition</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>https://www.politie.nl/themas/anpr.html</t>
+  </si>
+  <si>
+    <t>CAS - crime anticipation system</t>
+  </si>
+  <si>
+    <t>http://ceur-ws.org/Vol-2103/paper_6.pdf</t>
+  </si>
+  <si>
+    <t>SyRi - detect welfare fraud</t>
+  </si>
+  <si>
+    <t>https://algorithmwatch.org/en/story/syri-netherlands-algorithm/</t>
+  </si>
+  <si>
+    <t>Social protection n.e.c.</t>
+  </si>
+  <si>
+    <t>HAL - classification of documents</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>https://www.regjeringen.no/en/dokumenter/nasjonal-strategi-for-kunstig-intelligens/id2685594/?ch=4#id0022</t>
+  </si>
+  <si>
+    <t>Foreign economic aid.</t>
+  </si>
+  <si>
+    <t>Kari - Chatbot</t>
+  </si>
+  <si>
+    <t>https://www.etapasproject.eu/usecases/post-3/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway Chatbot - chatbot for public administrations </t>
+  </si>
+  <si>
+    <t>https://www.boost.ai/articles/automation-for-the-people-using-conversational-ai-to-benefit-the-public-sector</t>
+  </si>
+  <si>
+    <t>TrondHeim - Insolvency Predicition</t>
+  </si>
+  <si>
+    <t>https://norden.diva-portal.org/smash/get/diva2:1375500/FULLTEXT01.pdf</t>
+  </si>
+  <si>
+    <t>VDI - Protection of digital infrastructure</t>
+  </si>
+  <si>
+    <t>https://www.regjeringen.no/en/dokumenter/nasjonal-strategi-for-kunstig-intelligens/id2685594/?ch=7</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>Military defence.</t>
+  </si>
+  <si>
+    <t>Home Quarantine - app on COVID-19 risk</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>https://www.gov.pl/web/cyfryzacja/aplikacja-kwarantanna-domowa--ruszyl-proces-jej-udostepniania</t>
+  </si>
+  <si>
+    <t>State Clearance Chamber - financial risk indicator</t>
+  </si>
+  <si>
+    <t>https://epf.org.pl/en/wp-content/uploads/sites/3/2019/05/alGOVrithms-State-of-Play-Report.pdf</t>
+  </si>
+  <si>
+    <t>CCM-SNS - verification of medical prescriptions</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>https://algorithmwatch.org/en/story/portugal-automated-verification-prescriptions-medical-fraud/</t>
+  </si>
+  <si>
+    <t>Sigma - chatbot on changing citizens' address</t>
+  </si>
+  <si>
+    <t>https://joinup.ec.europa.eu/sites/default/files/news/2019-09/ISA2_Architecture%20for%20public%20service%20chatbots.pdf</t>
+  </si>
+  <si>
+    <t>Antonia - automatic processing of requests of public services</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>https://www.romaniajournal.ro/society-people/antonia-the-first-virtual-public-servant-in-romania/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucharest airport - face recognition </t>
+  </si>
+  <si>
+    <t>https://www.uti.eu.com/press-releases/uti-will-implement-face-recognition-and-intelligent-image-analysis-systems-with-otopeni-airport/</t>
+  </si>
+  <si>
+    <t>Oversi - Chatbot to faster burocracy</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>https://stopbyrokracii.sk/</t>
+  </si>
+  <si>
+    <t>PCA - AI algorithms in audit methodology</t>
+  </si>
+  <si>
+    <t>https://dennikn.sk/blog/1561696/big-data-ukazali-nestandardne-predpisovanie-liekov-usporime-tak-statisice-eur/</t>
   </si>
   <si>
     <t>Knowledge representation</t>
   </si>
   <si>
-    <t>Migri.fi Chatbot Kamu</t>
-  </si>
-  <si>
-    <t>https://migri.fi/en/chat1</t>
-  </si>
-  <si>
-    <t>OuloBot</t>
-  </si>
-  <si>
-    <t>https://www.ouka.fi/oulu/oulubot/</t>
-  </si>
-  <si>
-    <t>Chatbot Claudia (Chorus)</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>https://www.cio-online.com/actualites/lire-chorus-pro-aussi-aide-ses-utilisateurs-avec-un-chatbot-10199.html</t>
-  </si>
-  <si>
-    <t>Fraud detection value declarations</t>
-  </si>
-  <si>
-    <t>https://www.aiforhumanity.fr/pdfs/MissionVillani_Report_ENG-VF.pdf</t>
-  </si>
-  <si>
-    <t>LaBonneBo√Æte</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/social/BlobServlet?docId=20605&amp;langId=en</t>
-  </si>
-  <si>
-    <t>Searching</t>
-  </si>
-  <si>
-    <t>SignauxFaibles</t>
-  </si>
-  <si>
-    <t>https://beta.gouv.fr/startups/signaux-faibles.html</t>
-  </si>
-  <si>
-    <t>C-19 (Interdepartmental chatbot on the topic of Corona).</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>https://chatbot.it.bund.de/</t>
-  </si>
-  <si>
-    <t>GovBot Verwaltungssuchmaschine NRW</t>
-  </si>
-  <si>
-    <t>https://publicplan.de/projekt/verwaltungssuchmaschine-nrw</t>
-  </si>
-  <si>
-    <t>Refugee Language Detection</t>
-  </si>
-  <si>
-    <t>https://www.dw.com/en/automatic-speech-analysis-software-used-to-verify-refugees-dialects/a-37980819</t>
-  </si>
-  <si>
-    <t>Public order and safety n.e.c.</t>
-  </si>
-  <si>
-    <t>Audio processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERTH-MUKA - Public Organizations Multi-factor Misinformation Handling </t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>https://www.etapasproject.eu/usecases/post-4/</t>
-  </si>
-  <si>
-    <t>Revenue Chatbot</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>https://www.ops2020.gov.ie/actions/innovating-for-our-future/innovation/emerging-technology/artificial-intelligence/revenue-chatbot/</t>
-  </si>
-  <si>
-    <t>The Dublin Beat</t>
-  </si>
-  <si>
-    <t>https://smartdublin.ie/smart-dublin-explores-how-ai-social-media-can-help-improve-the-city-region/</t>
-  </si>
-  <si>
-    <t>R&amp;D general public services.</t>
-  </si>
-  <si>
-    <t>Borbot</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>https://borbot.it/</t>
-  </si>
-  <si>
-    <t>Recreation, culture and religion</t>
-  </si>
-  <si>
-    <t>Cultural services.</t>
-  </si>
-  <si>
-    <t>R1 humanoid robot</t>
-  </si>
-  <si>
-    <t>https://www.dongnocchi.it/news-ed-eventi/@news/robot-e-realta-virtuale-a-technology-hub-ecco-la-riabilitazione-innovativa</t>
-  </si>
-  <si>
-    <t>Medical products, appliances and equipment.</t>
-  </si>
-  <si>
-    <t>Smart Planner</t>
-  </si>
-  <si>
-    <t>https://www.smartcommunitylab.it/app/</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Planning and Scheduling</t>
-  </si>
-  <si>
-    <t>Chatbot Toms</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>https://www.vid.gov.lv/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot UNA </t>
-  </si>
-  <si>
-    <t>https://oecd-opsi.org/innovations/una-the-first-virtual-assistant-of-public-administration-in-latvia/</t>
-  </si>
-  <si>
-    <t>FITS (Future Intelligent Transport Systems) ITEMS</t>
-  </si>
-  <si>
-    <t>https://investinlatvia.org/en/key-sectors/sectors/smart-city</t>
-  </si>
-  <si>
-    <t>Computer vision</t>
-  </si>
-  <si>
-    <t>Hugo Virtual Asssistant</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/cefdigital/wiki/download/attachments/61932141/2_04_Janis%20Ziedins_Artus%20Vasiljevskis_Hugo.lv-AI_powered_service.pdf?version=1&amp;modificationDate=1544438787726&amp;api=v2</t>
-  </si>
-  <si>
-    <t>FCIS H2020</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>http://www.fntt.lt/lt/ivykiai/fntt-kartu-su-partneriais-pradeda-igyvendinti-europos-sajungos-moksliniu-tyrimu-ir-inovaciju-lesomis-remiama-projekta/3768</t>
-  </si>
-  <si>
-    <t>viLTe' chatbot</t>
-  </si>
-  <si>
-    <t>https://koronastop.lrv.lt/</t>
-  </si>
-  <si>
-    <t>ANPR</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>https://www.politie.nl/themas/anpr.html</t>
-  </si>
-  <si>
-    <t>Crime Anticipation System (CAS)</t>
-  </si>
-  <si>
-    <t>http://ceur-ws.org/Vol-2103/paper_6.pdf</t>
-  </si>
-  <si>
-    <t>SyRi</t>
-  </si>
-  <si>
-    <t>https://algorithmwatch.org/en/story/syri-netherlands-algorithm/</t>
-  </si>
-  <si>
-    <t>Social protection n.e.c.</t>
-  </si>
-  <si>
-    <t>Chatbots Norway</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>https://www.boost.ai/articles/automation-for-the-people-using-conversational-ai-to-benefit-the-public-sector</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>https://www.regjeringen.no/en/dokumenter/nasjonal-strategi-for-kunstig-intelligens/id2685594/?ch=4#id0022</t>
-  </si>
-  <si>
-    <t>Foreign economic aid.</t>
-  </si>
-  <si>
-    <t>Insolvency Predicition</t>
-  </si>
-  <si>
-    <t>https://norden.diva-portal.org/smash/get/diva2:1375500/FULLTEXT01.pdf</t>
-  </si>
-  <si>
-    <t>Kari - Chatbot</t>
-  </si>
-  <si>
-    <t>https://www.etapasproject.eu/usecases/post-3/</t>
-  </si>
-  <si>
-    <t>VDI: Protection of digital infrastructure</t>
-  </si>
-  <si>
-    <t>https://www.regjeringen.no/en/dokumenter/nasjonal-strategi-for-kunstig-intelligens/id2685594/?ch=7</t>
-  </si>
-  <si>
-    <t>Defence</t>
-  </si>
-  <si>
-    <t>Military defence.</t>
-  </si>
-  <si>
-    <t>Clearance Chamber ICT System</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>https://epf.org.pl/en/wp-content/uploads/sites/3/2019/05/alGOVrithms-State-of-Play-Report.pdf</t>
-  </si>
-  <si>
-    <t>Home Quarantine app</t>
-  </si>
-  <si>
-    <t>https://www.gov.pl/web/cyfryzacja/aplikacja-kwarantanna-domowa--ruszyl-proces-jej-udostepniania</t>
-  </si>
-  <si>
-    <t>Sigma</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>https://joinup.ec.europa.eu/sites/default/files/news/2019-09/ISA2_Architecture%20for%20public%20service%20chatbots.pdf</t>
-  </si>
-  <si>
-    <t>Verification of medical prescriptions</t>
-  </si>
-  <si>
-    <t>https://algorithmwatch.org/en/story/portugal-automated-verification-prescriptions-medical-fraud/</t>
-  </si>
-  <si>
-    <t>Health n.e.c.</t>
-  </si>
-  <si>
-    <t>Antonia</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>https://www.romaniajournal.ro/society-people/antonia-the-first-virtual-public-servant-in-romania/</t>
-  </si>
-  <si>
-    <t>Face recognition Bucharest Airport</t>
-  </si>
-  <si>
-    <t>https://www.uti.eu.com/press-releases/uti-will-implement-face-recognition-and-intelligent-image-analysis-systems-with-otopeni-airport/</t>
-  </si>
-  <si>
-    <t>AI algorithms PCA in audit methodology</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>https://dennikn.sk/blog/1561696/big-data-ukazali-nestandardne-predpisovanie-liekov-usporime-tak-statisice-eur/</t>
-  </si>
-  <si>
-    <t>Chatbot Oversi</t>
-  </si>
-  <si>
-    <t>https://stopbyrokracii.sk/</t>
-  </si>
-  <si>
-    <t>Chatbot Taxana</t>
+    <t>Taxana - chatbot for financial administration</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=UQ_XRlIFtrQ &amp; https://www.podnikajte.sk/dane/taxana-chatbot</t>
   </si>
   <si>
-    <t>Semantic analyser</t>
+    <t>Semantic analyser - document analyser for the public administration</t>
   </si>
   <si>
     <t>Slovenia</t>
@@ -603,7 +642,7 @@
     <t>https://nio.gov.si/nio/asset/semanticni+analizator+besedil</t>
   </si>
   <si>
-    <t>060 Service</t>
+    <t>060 Service - answer FAQ from citizens and burocratic terms into informal language</t>
   </si>
   <si>
     <t>Spain</t>
@@ -612,7 +651,7 @@
     <t>https://joinup.ec.europa.eu/sites/default/files/inline-files/08-2%20Salvador_Estevan_Martinez%20and%20Doaa_Samy_0.pdf</t>
   </si>
   <si>
-    <t>AI for measuring beach attendance</t>
+    <t>Fuengirola Town Hall - measuring beach attendance</t>
   </si>
   <si>
     <t>https://www.euroweeklynews.com/2020/05/04/costa-del-sols-fuengirola-will-use-artificial-intelligence-to-control-capacity-at-beaches-and-public-spaces/</t>
@@ -621,55 +660,55 @@
     <t>Recreational and sporting services.</t>
   </si>
   <si>
-    <t>Merc√©</t>
+    <t>Merc√© - citizen science for better urban life</t>
   </si>
   <si>
     <t>http://merce.300000.eu/data2/informe_merce.pdf</t>
   </si>
   <si>
-    <t>Misty II</t>
+    <t>Misty II - Robot for elderly people</t>
   </si>
   <si>
     <t>https://www.barcelona.cat/infobarcelona/en/tema/senior-citizens/misty-ii-the-social-robot-becomes-part-of-the-lives-of-twenty-senior-citizens_907645.html</t>
   </si>
   <si>
+    <t>Robotics and Automation</t>
+  </si>
+  <si>
     <t>Old age.</t>
   </si>
   <si>
-    <t>Robotics and Automation</t>
-  </si>
-  <si>
-    <t>VeriPol</t>
+    <t>VeriPol - detect false police reports</t>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/S095070511830128X</t>
   </si>
   <si>
-    <t>Automated social welfare decisions in Trelleborg</t>
+    <t>Skatti - Answering system about population registration and the income tax return</t>
   </si>
   <si>
     <t>Sweden</t>
   </si>
   <si>
+    <t>https://www.skatteverket.se/omoss/kontaktaoss/chattamedvardigitalamedarbetare.4.2cf1b5cd163796a5c8b403b.html</t>
+  </si>
+  <si>
+    <t>Tengai - robot in recruitment processes</t>
+  </si>
+  <si>
+    <t>https://www.upplands-bro.se/kommun--politik/om-kommunen/information-om-coronaviruset/nyheter-corona/2020-05-05-kommunen-tar-nasta-steg-i-fordomsfri-rekrytering-med-intervjuroboten-tengai.html</t>
+  </si>
+  <si>
+    <t>Trelleborg - automated social welfare decisions</t>
+  </si>
+  <si>
     <t>https://valcon.com/insights/trelleborg-robotics-solution/</t>
   </si>
   <si>
     <t>Social exclusion n.e.c.</t>
   </si>
   <si>
-    <t>Skatti</t>
-  </si>
-  <si>
-    <t>https://www.skatteverket.se/omoss/kontaktaoss/chattamedvardigitalamedarbetare.4.2cf1b5cd163796a5c8b403b.html</t>
-  </si>
-  <si>
-    <t>Tengai</t>
-  </si>
-  <si>
-    <t>https://www.upplands-bro.se/kommun--politik/om-kommunen/information-om-coronaviruset/nyheter-corona/2020-05-05-kommunen-tar-nasta-steg-i-fordomsfri-rekrytering-med-intervjuroboten-tengai.html</t>
-  </si>
-  <si>
-    <t>Maxi Chatbot</t>
+    <t>Maxi - chatbot answering questions on insurance</t>
   </si>
   <si>
     <t>Switzerland</t>
@@ -678,7 +717,7 @@
     <t>https://www.previon.ch/projekte/maxi-der-clevere-chatbot-der-sva-aargau</t>
   </si>
   <si>
-    <t>NOGAuto</t>
+    <t xml:space="preserve">NOGAuto - assign or control codes to companies for economic activities </t>
   </si>
   <si>
     <t>https://www.experimental.bfs.admin.ch/expstat/en/home/innovation-data-science/nogauto.html</t>
@@ -687,7 +726,7 @@
     <t>R&amp;D economic affairs</t>
   </si>
   <si>
-    <t>Amelia CitizenBot</t>
+    <t>Amelia - chatbot helping local residents find city services</t>
   </si>
   <si>
     <t>United Kingdom</t>
@@ -696,25 +735,25 @@
     <t>https://www.ukauthority.com/articles/enfield-joins-microsoft-in-citizenbot-project/</t>
   </si>
   <si>
-    <t>Babylon</t>
+    <t>Babylon - health interactive symptom checker</t>
   </si>
   <si>
     <t>https://www.babylonhealth.com/</t>
   </si>
   <si>
-    <t>Early Help Profiling System (EHPS)</t>
+    <t>DVSA MOT -  Intelligent, data-driven approach to better target Driver and Vehicle Standards Agency (DVSA) resources</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/case-studies/how-the-department-for-transport-used-ai-to-improve-mot-testing</t>
+  </si>
+  <si>
+    <t>EHPS - early help profiling system to identify children and families considered vulnerable</t>
   </si>
   <si>
     <t>https://www.hackneycitizen.co.uk/2018/10/18/council-360k-xantura-software-profiles-troubled-families/</t>
   </si>
   <si>
-    <t>Ensuring MOT standards in garages</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/case-studies/how-the-department-for-transport-used-ai-to-improve-mot-testing</t>
-  </si>
-  <si>
-    <t>HART</t>
+    <t>HART - assessment risk tool, predictive policing based on person data</t>
   </si>
   <si>
     <t>https://www.tandfonline.com/doi/pdf/10.1080/13600834.2018.1458455</t>
@@ -773,7 +812,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="List-of-Initiatives-AI-X-xlsx-2" connectionId="1" xr16:uid="{2F683A86-2045-674A-B391-69EDDBEBC65D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{5283AAA4-F094-9B4F-B091-09788506EACE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1072,20 +1111,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBC3A70-990E-9644-879B-0CADE822DA4A}">
-  <dimension ref="A1:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED83136A-E15B-7542-8A2D-858A74F2CADF}">
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1142,53 +1181,53 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1200,27 +1239,27 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -1234,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -1243,33 +1282,33 @@
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1280,16 +1319,16 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1297,71 +1336,71 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1369,45 +1408,45 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1415,45 +1454,45 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
         <v>61</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1461,22 +1500,22 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1484,7 +1523,7 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1496,10 +1535,10 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1507,7 +1546,7 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1516,59 +1555,59 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1576,7 +1615,7 @@
         <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1588,10 +1627,10 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1599,22 +1638,22 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1631,7 +1670,7 @@
         <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1654,13 +1693,13 @@
         <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1671,27 +1710,27 @@
         <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
         <v>90</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1700,13 +1739,13 @@
         <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1714,45 +1753,45 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>96</v>
       </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1760,7 +1799,7 @@
         <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1769,79 +1808,79 @@
         <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="B31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
         <v>104</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -1849,30 +1888,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
         <v>111</v>
@@ -1881,274 +1920,274 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
         <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
         <v>123</v>
       </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>128</v>
-      </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" t="s">
         <v>132</v>
-      </c>
-      <c r="B41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" t="s">
         <v>135</v>
       </c>
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" t="s">
-        <v>41</v>
-      </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
         <v>137</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
         <v>138</v>
       </c>
-      <c r="C43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" t="s">
-        <v>139</v>
-      </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
         <v>140</v>
       </c>
-      <c r="B44" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>141</v>
-      </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
         <v>142</v>
       </c>
-      <c r="B45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s">
-        <v>143</v>
-      </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
         <v>146</v>
@@ -2157,151 +2196,151 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
         <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
         <v>160</v>
       </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" t="s">
-        <v>163</v>
-      </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
@@ -2309,114 +2348,114 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
         <v>165</v>
       </c>
-      <c r="C54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" t="s">
-        <v>168</v>
-      </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" t="s">
         <v>171</v>
-      </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
         <v>176</v>
       </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>179</v>
-      </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -2424,39 +2463,39 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -2465,27 +2504,27 @@
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
@@ -2493,39 +2532,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
         <v>186</v>
       </c>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" t="s">
-        <v>189</v>
-      </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2534,91 +2573,91 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="F64" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
         <v>200</v>
       </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>204</v>
-      </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
@@ -2626,47 +2665,47 @@
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G68" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
@@ -2677,140 +2716,278 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" t="s">
         <v>208</v>
       </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>211</v>
-      </c>
-      <c r="E70" t="s">
-        <v>57</v>
-      </c>
       <c r="F70" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
         <v>214</v>
       </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>217</v>
-      </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" t="s">
         <v>222</v>
       </c>
-      <c r="B75" t="s">
-        <v>214</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>223</v>
       </c>
-      <c r="E75" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>232</v>
+      </c>
+      <c r="E79" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>233</v>
+      </c>
+      <c r="B80" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>234</v>
+      </c>
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" t="s">
         <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Export-JRC-Data-Catalogue.xlsx
+++ b/Export-JRC-Data-Catalogue.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDD3211-78CE-DA48-B462-7F06E3FA83A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13DC35AD-8C6D-B442-BAF1-CA6438FBF057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{B9B58E36-6881-9548-B3F0-F837A1F7A434}"/>
+    <workbookView xWindow="11360" yWindow="2040" windowWidth="27640" windowHeight="16940" xr2:uid="{C39492B5-FCF5-AA43-8770-027F37FEC5F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Export_JRC_Data_Catalogue" localSheetId="0">Sheet1!$A$1:$G$81</definedName>
+    <definedName name="Export_JRC_Data_Catalogue" localSheetId="0">Sheet1!$A$1:$G$80</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{DD660C74-1C0C-2A4E-B73D-3B87E359B71D}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/lorenzinovaccari/Downloads/Export-JRC-Data-Catalogue.csv" decimal="," thousands="." tab="0" comma="1">
+  <connection id="1" xr16:uid="{853B30DB-6FE7-A240-AE81-56F9B773C86E}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/Export-JRC-Data-Catalogue.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="235">
   <si>
     <t>title</t>
   </si>
@@ -388,12 +388,6 @@
   </si>
   <si>
     <t>Health n.e.c.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T√âBA - Decision on the Maternity Benefit  following the family support scheme of the Hungarian State Treasury </t>
-  </si>
-  <si>
-    <t>AI Services</t>
   </si>
   <si>
     <t>V√©da-KAFIR-ROBOTZSARU (‚ÄòRobocop‚Äô) - System Operated by the Police for Traffic Safety Automated Processing</t>
@@ -812,7 +806,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{5283AAA4-F094-9B4F-B091-09788506EACE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{1CA0A71A-0850-B641-9CBD-19802383887E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1111,8 +1105,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED83136A-E15B-7542-8A2D-858A74F2CADF}">
-  <dimension ref="A1:G81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B8DE3-7BFD-F342-A42C-E364A70BD6C0}">
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1946,13 +1940,13 @@
         <v>112</v>
       </c>
       <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
         <v>115</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1960,45 +1954,45 @@
         <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2006,99 +2000,99 @@
         <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
         <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -2107,13 +2101,13 @@
         <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2121,7 +2115,7 @@
         <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -2136,7 +2130,7 @@
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2144,7 +2138,7 @@
         <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -2156,10 +2150,10 @@
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2167,30 +2161,30 @@
         <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -2199,13 +2193,13 @@
         <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2213,30 +2207,30 @@
         <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -2245,7 +2239,7 @@
         <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -2259,10 +2253,10 @@
         <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>154</v>
@@ -2271,47 +2265,47 @@
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -2320,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2328,10 +2322,10 @@
         <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
         <v>163</v>
@@ -2343,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2351,22 +2345,22 @@
         <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
         <v>165</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2374,10 +2368,10 @@
         <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
         <v>167</v>
@@ -2386,41 +2380,41 @@
         <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -2429,13 +2423,13 @@
         <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2443,30 +2437,30 @@
         <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E58" t="s">
         <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -2475,13 +2469,13 @@
         <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2489,13 +2483,13 @@
         <v>180</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -2504,15 +2498,15 @@
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -2521,13 +2515,13 @@
         <v>184</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2535,30 +2529,30 @@
         <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -2567,36 +2561,36 @@
         <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E64" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2604,13 +2598,13 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2624,16 +2618,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2642,53 +2636,53 @@
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
         <v>200</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2696,7 +2690,7 @@
         <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -2705,36 +2699,36 @@
         <v>205</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E70" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2742,45 +2736,45 @@
         <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
         <v>214</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2788,7 +2782,7 @@
         <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -2797,105 +2791,105 @@
         <v>216</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
         <v>222</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
         <v>228</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2903,7 +2897,7 @@
         <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -2912,13 +2906,13 @@
         <v>230</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2926,22 +2920,22 @@
         <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
         <v>232</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2949,10 +2943,10 @@
         <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
         <v>234</v>
@@ -2961,32 +2955,9 @@
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>235</v>
-      </c>
-      <c r="B81" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" t="s">
-        <v>236</v>
-      </c>
-      <c r="E81" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Export-JRC-Data-Catalogue.xlsx
+++ b/Export-JRC-Data-Catalogue.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13DC35AD-8C6D-B442-BAF1-CA6438FBF057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDEA1C26-A746-1E40-A5D9-16011A37C18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="2040" windowWidth="27640" windowHeight="16940" xr2:uid="{C39492B5-FCF5-AA43-8770-027F37FEC5F6}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{38EFC12B-19C1-D14A-AADF-AA2B92B818BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Export_JRC_Data_Catalogue" localSheetId="0">Sheet1!$A$1:$G$80</definedName>
+    <definedName name="Export_JRC_Data_Catalogue" localSheetId="0">Sheet1!$A$1:$G$101</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{853B30DB-6FE7-A240-AE81-56F9B773C86E}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{7FB3E876-20ED-B64B-9137-C35184B01E8D}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/Export-JRC-Data-Catalogue.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="282">
   <si>
     <t>title</t>
   </si>
@@ -138,13 +138,34 @@
     <t>https://www.innovatieveoverheidsopdrachten.be/en/projects/1700-supported-artificial-intelligence</t>
   </si>
   <si>
+    <t>ILVO - Multiple AI projects n the agricultural domain</t>
+  </si>
+  <si>
+    <t>https://ilvo.vlaanderen.be/en/search-results?q=Artificial+intelligence&amp;id=home&amp;l=en</t>
+  </si>
+  <si>
+    <t>Machine learning</t>
+  </si>
+  <si>
+    <t>Economic affairs</t>
+  </si>
+  <si>
+    <t>General economic, commercial and labour affair</t>
+  </si>
+  <si>
     <t>Jobnet - reskilling, upskilling and retraining of people</t>
   </si>
   <si>
-    <t>https://jobbereik.vdab.be</t>
-  </si>
-  <si>
-    <t>Machine learning</t>
+    <t>https://www.agoria.be/nl/VDAB-gebruikt-AI-om-jobmatching-te-verrijken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VDAB - chatbot for joob seekers</t>
+  </si>
+  <si>
+    <t>https://tracebrussel.be/nieuws/vdab-experimenteert-met-chatbots-en-tinderdienst</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Verontrustingen - enabling accurate predictions to detect day-care services which require further inspection</t>
@@ -153,15 +174,21 @@
     <t>https://www.dialogic.nl/wp-content/uploads/2018/06/VTOM-Small-Kids-Big-Data-Frank-Bongers-mei-2018.pdf</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Social protection</t>
   </si>
   <si>
     <t>Family and children.</t>
   </si>
   <si>
+    <t>Walloon - Agricultural subsidy monitoring with the use of GeoAI</t>
+  </si>
+  <si>
+    <t>https://inspire.ec.europa.eu/sites/default/files/1._location_intelligence_-_gartner_v1.2.pdf</t>
+  </si>
+  <si>
+    <t>Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
     <t>Plovdic - city Concierge Chatbot</t>
   </si>
   <si>
@@ -231,27 +258,39 @@
     <t>https://joinup.ec.europa.eu/sites/default/files/custom-page/attachment/2020-07/Study%20on%20public%20sector%20data%20strategies%2C%20policies%20and%20governance%20%E2%80%93%20ANNEX%20Case%20studies.pdf</t>
   </si>
   <si>
-    <t>Economic affairs</t>
-  </si>
-  <si>
-    <t>General economic, commercial and labour affair</t>
-  </si>
-  <si>
     <t>Kiri - chatbot for citizens' enquiries</t>
   </si>
   <si>
     <t>https://www.frederiksberg.dk/nyheder/frederiksberg-kommune-deltager-i-forsog-med-chatbot</t>
   </si>
   <si>
+    <t>Datel - Speed cameras for detecting speeding violations</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>https://www.datel.eu/en/solutions/e-government-solutions/item/417</t>
+  </si>
+  <si>
     <t>Enhanced Care Management - prediction model</t>
   </si>
   <si>
-    <t>Estonia</t>
-  </si>
-  <si>
     <t>https://www.kratid.ee/haigekassa-kasutuslug</t>
   </si>
   <si>
+    <t>e-Residency - Chatbot for customer assistance</t>
+  </si>
+  <si>
+    <t>https://medium.com/e-residency-blog/how-we-use-ai-to-help-users-get-answers-instantly-and-increase-customer-satisfaction-95d1a06caad</t>
+  </si>
+  <si>
+    <t>Hans - A system for preparing of verbatim reports</t>
+  </si>
+  <si>
+    <t>https://m.riigikogu.ee/en/press-releases/others/the-riigikogu-has-a-new-system-for-making-verbatim-reports/</t>
+  </si>
+  <si>
     <t>Iti - chatbot for Statistics Estonia</t>
   </si>
   <si>
@@ -267,15 +306,18 @@
     <t>Unemployment.</t>
   </si>
   <si>
+    <t>Riigikogu - Language speech synthesiser fror the Estonian Parliament</t>
+  </si>
+  <si>
+    <t>https://www.err.ee/1134953/eesti-viimaste-stenografistide-too-vottis-ule-robot</t>
+  </si>
+  <si>
     <t>SATIKAS -  detecting the agricultural grasslands changes</t>
   </si>
   <si>
     <t>https://kosmos.ut.ee/en/news/information-system-satikas-helps-detect-mowing-using-satellite-data</t>
   </si>
   <si>
-    <t>Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
     <t>SUVE - chatbot for questions about the emergency situation</t>
   </si>
   <si>
@@ -288,21 +330,48 @@
     <t>https://www.texta.ee/home</t>
   </si>
   <si>
+    <t>Traffic load - machine vision for collecting information</t>
+  </si>
+  <si>
+    <t>https://www.kratid.ee/tlt-kasutuslugu</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
     <t>X-Road - data excange anomalies</t>
   </si>
   <si>
     <t>https://www.kratid.ee/ria-kasutuslugu</t>
   </si>
   <si>
+    <t>AuroraAI  - Programme with many AI examples.</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>https://vm.fi/documents/10623/13292513/AuroraAI+development+and+implementation+plan+2019%E2%80%932023.pdf/7c96ee87-2b0e-dadd-07cd-0235352fc6f9/AuroraAI+development+and+implementation+plan+2019%E2%80%932023.pdf</t>
+  </si>
+  <si>
+    <t>Health n.e.c.</t>
+  </si>
+  <si>
     <t>Case Fiva (RPA) - support the Financial supervisory Authority</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
     <t>https://julkaisut.valtioneuvosto.fi/bitstream/handle/10024/161688/41_19_Leading%20the%20way%20into%20the%20age%20of%20artificial%20intelligence.pdf?sequence=4</t>
   </si>
   <si>
+    <t>Helsinki HUH - Intensive care for premature baby</t>
+  </si>
+  <si>
+    <t>https://www.helsinki.fi/en/news/healthier-world/artificial-intelligence-evaluate-brain-maturity-preterm-infants</t>
+  </si>
+  <si>
+    <t>Hospital services.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kamu - chatbot about immigration processes </t>
   </si>
   <si>
@@ -315,21 +384,51 @@
     <t>https://www.ouka.fi/oulu/oulubot/</t>
   </si>
   <si>
+    <t>PatRek - Chatbot for business</t>
+  </si>
+  <si>
+    <t>https://medium.com/inland/valtionhallinnon-chatbot-verkosto-neuvoo-ulkomaalaisia-yrityksen-perustamisessa-44eb1e0c4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VeroBot - Chatbot for citizens about tax management </t>
+  </si>
+  <si>
+    <t>https://www.vero.fi/en/e-file/mytax/</t>
+  </si>
+  <si>
+    <t>Aria - Chatbot answering retired people</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lassuranceretraite.fr/portail-info/sites/pub/hors-menu/actualites-nationales/retraite/2018/page-9.html </t>
+  </si>
+  <si>
     <t>ClaudIA - chatbot for the invoicing portal for purchases by public authorities</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>https://www.cio-online.com/actualites/lire-chorus-pro-aussi-aide-ses-utilisateurs-avec-un-chatbot-10199.html</t>
   </si>
   <si>
+    <t>Datakalab - Covid-19 Mask wearing  detection In some French cities</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/news/world-europe-52529981</t>
+  </si>
+  <si>
     <t>French Fraud - fraud detection value declarations</t>
   </si>
   <si>
     <t>https://www.aiforhumanity.fr/pdfs/MissionVillani_Report_ENG-VF.pdf</t>
   </si>
   <si>
+    <t>IAlim - Targeting restaurant health inspections</t>
+  </si>
+  <si>
+    <t>https://agriculture.gouv.fr/telecharger/116478?token=34e41e9143e50e1be2324f7d9bf7f7fceffe7183e5e97acb34d333c90a70b5a6</t>
+  </si>
+  <si>
     <t>LaBonneBo√Æte - identification of companies with a high probability of hiring</t>
   </si>
   <si>
@@ -339,6 +438,21 @@
     <t>Searching</t>
   </si>
   <si>
+    <t>OpenJustice - Open case law, pseudonymization and enrichment of court decisions</t>
+  </si>
+  <si>
+    <t>https://entrepreneur-interet-general.etalab.gouv.fr/defis/2019/openjustice.html</t>
+  </si>
+  <si>
+    <t>Law courts</t>
+  </si>
+  <si>
+    <t>RenoiRH - Chatbot in HR management rules to facilitate access</t>
+  </si>
+  <si>
+    <t>https://www.soprahr.com/docs/librariesprovider45/Documents/customer-testimonials---temoignage-clients/t%C3%A9moignage_le-cisirh-innove-avec-son-chatbot-rh-docx.pdf?sfvrsn=7eb4345b_2</t>
+  </si>
+  <si>
     <t>SignauxFaibles - predictive analysis of business difficulties</t>
   </si>
   <si>
@@ -387,15 +501,9 @@
     <t>https://metamorphosis.org.mk/wp-content/uploads/2021/04/algovrithms_2.0_report-2021.pdf</t>
   </si>
   <si>
-    <t>Health n.e.c.</t>
-  </si>
-  <si>
     <t>V√©da-KAFIR-ROBOTZSARU (‚ÄòRobocop‚Äô) - System Operated by the Police for Traffic Safety Automated Processing</t>
   </si>
   <si>
-    <t>Transport</t>
-  </si>
-  <si>
     <t>The Dublin Beat - citizen opinion analysis</t>
   </si>
   <si>
@@ -429,6 +537,27 @@
     <t>Cultural services.</t>
   </si>
   <si>
+    <t>Noovle - Management of health documentation</t>
+  </si>
+  <si>
+    <t>https://www.noovle.ch/project/arsenal-it-centro-veneto-ricerca-e-innovazione-per-la-sanita-digitale/</t>
+  </si>
+  <si>
+    <t>R&amp;D health.</t>
+  </si>
+  <si>
+    <t>Pierino - PIatform for the extraction and retrieval of online information</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/323280575_NLP_and_Public_Engagement_the_Case_of_the_Italian_School_Reform</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>R&amp;D education.</t>
+  </si>
+  <si>
     <t>R1 - humanoid robot</t>
   </si>
   <si>
@@ -450,6 +579,21 @@
     <t>Planning and Scheduling</t>
   </si>
   <si>
+    <t>TALIA SF - Extract and organize knowledge coming from the analysis of a huge quantity of textual documents</t>
+  </si>
+  <si>
+    <t>https://social-and-creative.interreg-med.eu/no-cache/press-room/news/detail/actualites/the-sc-community-tools-the-semantic-framework/</t>
+  </si>
+  <si>
+    <t>Toscana Open Research - Allows users to access information through "queries", without having to know the technical terms</t>
+  </si>
+  <si>
+    <t>http://www.toscanaopenresearch.it/explore-the-data/#/</t>
+  </si>
+  <si>
+    <t>Knowledge representation</t>
+  </si>
+  <si>
     <t xml:space="preserve">FITS ITEMS - road safety </t>
   </si>
   <si>
@@ -498,7 +642,7 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>https://www.politie.nl/themas/anpr.html</t>
+    <t>https://www.politie.nl/onderwerpen/anpr.html</t>
   </si>
   <si>
     <t>CAS - crime anticipation system</t>
@@ -603,7 +747,7 @@
     <t>https://www.uti.eu.com/press-releases/uti-will-implement-face-recognition-and-intelligent-image-analysis-systems-with-otopeni-airport/</t>
   </si>
   <si>
-    <t>Oversi - Chatbot to faster burocracy</t>
+    <t>OverSi - Chatbot to faster burocracy</t>
   </si>
   <si>
     <t>Slovakia</t>
@@ -616,9 +760,6 @@
   </si>
   <si>
     <t>https://dennikn.sk/blog/1561696/big-data-ukazali-nestandardne-predpisovanie-liekov-usporime-tak-statisice-eur/</t>
-  </si>
-  <si>
-    <t>Knowledge representation</t>
   </si>
   <si>
     <t>Taxana - chatbot for financial administration</t>
@@ -806,7 +947,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{1CA0A71A-0850-B641-9CBD-19802383887E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{375CEB51-999D-1840-BA30-B71922DD877F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1105,8 +1246,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B8DE3-7BFD-F342-A42C-E364A70BD6C0}">
-  <dimension ref="A1:G80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37346D43-DBF7-AB47-947A-796A2C5B419F}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,15 +1417,15 @@
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1293,33 +1434,33 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1330,148 +1471,148 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G13" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
         <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
         <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1480,13 +1621,13 @@
         <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1494,22 +1635,22 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1517,7 +1658,7 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1526,13 +1667,13 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1540,30 +1681,30 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1572,50 +1713,50 @@
         <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1629,86 +1770,86 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
         <v>85</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
@@ -1716,127 +1857,127 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
         <v>89</v>
       </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>100</v>
@@ -1845,33 +1986,33 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1882,407 +2023,407 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
         <v>111</v>
       </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -2291,298 +2432,298 @@
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
         <v>157</v>
       </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
-        <v>167</v>
-      </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E57" t="s">
         <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="G58" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
         <v>186</v>
       </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="s">
-        <v>192</v>
-      </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
@@ -2590,21 +2731,21 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2618,76 +2759,76 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
         <v>197</v>
@@ -2696,30 +2837,30 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E69" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
         <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E70" t="s">
         <v>32</v>
@@ -2733,85 +2874,85 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E73" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2820,144 +2961,627 @@
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G77" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
         <v>225</v>
-      </c>
-      <c r="C79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" t="s">
-        <v>232</v>
       </c>
       <c r="E79" t="s">
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>233</v>
       </c>
-      <c r="B80" t="s">
-        <v>225</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="B83" t="s">
         <v>234</v>
       </c>
-      <c r="E80" t="s">
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>237</v>
+      </c>
+      <c r="E84" t="s">
         <v>32</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F84" t="s">
+        <v>53</v>
+      </c>
+      <c r="G84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>242</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>245</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>246</v>
+      </c>
+      <c r="B88" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" t="s">
+        <v>161</v>
+      </c>
+      <c r="G88" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>250</v>
+      </c>
+      <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>252</v>
+      </c>
+      <c r="E90" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
         <v>22</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>259</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E93" t="s">
+        <v>67</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>262</v>
+      </c>
+      <c r="B94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E94" t="s">
+        <v>172</v>
+      </c>
+      <c r="F94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>265</v>
+      </c>
+      <c r="B95" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>268</v>
+      </c>
+      <c r="B96" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>269</v>
+      </c>
+      <c r="E96" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>271</v>
+      </c>
+      <c r="B97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>274</v>
+      </c>
+      <c r="B98" t="s">
+        <v>272</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>275</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" t="s">
+        <v>53</v>
+      </c>
+      <c r="G98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>277</v>
+      </c>
+      <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>279</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>280</v>
+      </c>
+      <c r="B101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>281</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Export-JRC-Data-Catalogue.xlsx
+++ b/Export-JRC-Data-Catalogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDEA1C26-A746-1E40-A5D9-16011A37C18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99077037-ED42-614A-B703-4245E0E993AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{38EFC12B-19C1-D14A-AADF-AA2B92B818BC}"/>
+    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{4779D658-7589-834E-9851-F73AFFA50090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{7FB3E876-20ED-B64B-9137-C35184B01E8D}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{21E1D519-8C10-0B4C-82A7-CF39683712A0}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/Export-JRC-Data-Catalogue.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -585,7 +585,7 @@
     <t>https://social-and-creative.interreg-med.eu/no-cache/press-room/news/detail/actualites/the-sc-community-tools-the-semantic-framework/</t>
   </si>
   <si>
-    <t>Toscana Open Research - Allows users to access information through "queries", without having to know the technical terms</t>
+    <t>Toscana Open Research - Allows users to access information through "queries" without having to know the technical terms</t>
   </si>
   <si>
     <t>http://www.toscanaopenresearch.it/explore-the-data/#/</t>
@@ -947,7 +947,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{375CEB51-999D-1840-BA30-B71922DD877F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{8FD796D4-15B7-1B4F-ADD1-576A14ED193A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1246,7 +1246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37346D43-DBF7-AB47-947A-796A2C5B419F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9982E8E7-C797-E643-93F0-A8C19BFB35C5}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Export-JRC-Data-Catalogue.xlsx
+++ b/Export-JRC-Data-Catalogue.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99077037-ED42-614A-B703-4245E0E993AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8073896-A0FC-9D4A-B2E0-9E61DE2029D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{4779D658-7589-834E-9851-F73AFFA50090}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{327AD222-D1F2-A546-9D0B-569D735EB7A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Export_JRC_Data_Catalogue" localSheetId="0">Sheet1!$A$1:$G$101</definedName>
+    <definedName name="Export_JRC_Data_Catalogue" localSheetId="0">Sheet1!$A$1:$G$114</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{21E1D519-8C10-0B4C-82A7-CF39683712A0}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{2D8CDD24-7D3E-3647-82AA-6855D6B09C5E}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/Export-JRC-Data-Catalogue.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="311">
   <si>
     <t>title</t>
   </si>
@@ -165,204 +165,204 @@
     <t>https://tracebrussel.be/nieuws/vdab-experimenteert-met-chatbots-en-tinderdienst</t>
   </si>
   <si>
+    <t>Verontrustingen - enabling accurate predictions to detect day-care services which require further inspection</t>
+  </si>
+  <si>
+    <t>https://www.dialogic.nl/wp-content/uploads/2018/06/VTOM-Small-Kids-Big-Data-Frank-Bongers-mei-2018.pdf</t>
+  </si>
+  <si>
+    <t>Social protection</t>
+  </si>
+  <si>
+    <t>Family and children.</t>
+  </si>
+  <si>
+    <t>Walloon - Agricultural subsidy monitoring with the use of GeoAI</t>
+  </si>
+  <si>
+    <t>https://inspire.ec.europa.eu/sites/default/files/1._location_intelligence_-_gartner_v1.2.pdf</t>
+  </si>
+  <si>
+    <t>Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
+    <t>Plovdic - city Concierge Chatbot</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>https://umni.bg/en/plovdiv-city-concierge-chatbot/</t>
+  </si>
+  <si>
+    <t>Andrija - virtual assistant supporting advising suspected COVID-19 infections</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>https://andrija.ai/</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Public health services.</t>
+  </si>
+  <si>
+    <t>Hope - chatbot informing work of the Civil Protection Staff</t>
+  </si>
+  <si>
+    <t>https://www.themayor.eu/en/a/view/coronavirus-chatbot-educates-the-citizens-of-vinkovci-4796</t>
+  </si>
+  <si>
+    <t>WaterAnalytics - water quality monitoring</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>https://www.wateranalytics.eu/</t>
+  </si>
+  <si>
+    <t>Housing and community amenities</t>
+  </si>
+  <si>
+    <t>Water supply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAIN - smart Water optimising energy consumption </t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>https://www.aquatechtrade.com/news/article/video-story-digital-denmark/</t>
+  </si>
+  <si>
+    <t>Corti's AI - emergency medical services real-time speech analysis for cardiac predictions</t>
+  </si>
+  <si>
+    <t>https://www.weforum.org/agenda/2018/06/this-ai-detects-cardiac-arrests-during-emergency-calls/</t>
+  </si>
+  <si>
+    <t>Audio processing</t>
+  </si>
+  <si>
+    <t>Erhvervsstyrelsen - Detection of errors in business statements</t>
+  </si>
+  <si>
+    <t>https://joinup.ec.europa.eu/sites/default/files/custom-page/attachment/2020-07/Study%20on%20public%20sector%20data%20strategies%2C%20policies%20and%20governance%20%E2%80%93%20ANNEX%20Case%20studies.pdf</t>
+  </si>
+  <si>
+    <t>Kiri - chatbot for citizens' enquiries</t>
+  </si>
+  <si>
+    <t>https://www.frederiksberg.dk/nyheder/frederiksberg-kommune-deltager-i-forsog-med-chatbot</t>
+  </si>
+  <si>
+    <t>Datel - Speed cameras for detecting speeding violations</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>https://www.datel.eu/en/solutions/e-government-solutions/item/417</t>
+  </si>
+  <si>
+    <t>Enhanced Care Management - prediction model</t>
+  </si>
+  <si>
+    <t>https://www.kratid.ee/haigekassa-kasutuslug</t>
+  </si>
+  <si>
+    <t>e-Residency - Chatbot for customer assistance</t>
+  </si>
+  <si>
+    <t>https://medium.com/e-residency-blog/how-we-use-ai-to-help-users-get-answers-instantly-and-increase-customer-satisfaction-95d1a06caad</t>
+  </si>
+  <si>
+    <t>Hans - A system for preparing of verbatim reports</t>
+  </si>
+  <si>
+    <t>https://m.riigikogu.ee/en/press-releases/others/the-riigikogu-has-a-new-system-for-making-verbatim-reports/</t>
+  </si>
+  <si>
+    <t>Iti - chatbot for Statistics Estonia</t>
+  </si>
+  <si>
+    <t>https://www.kratid.ee/statistikaameti-kasutuslugu</t>
+  </si>
+  <si>
+    <t>OTT - predicting employment pathways</t>
+  </si>
+  <si>
+    <t>https://e-estonia.com/new-e-estonia-factsheet-national-ai-kratt-strategy/</t>
+  </si>
+  <si>
+    <t>Unemployment.</t>
+  </si>
+  <si>
+    <t>Riigikogu - Language speech synthesiser fror the Estonian Parliament</t>
+  </si>
+  <si>
+    <t>https://www.err.ee/1134953/eesti-viimaste-stenografistide-too-vottis-ule-robot</t>
+  </si>
+  <si>
+    <t>SATIKAS -  detecting the agricultural grasslands changes</t>
+  </si>
+  <si>
+    <t>https://kosmos.ut.ee/en/news/information-system-satikas-helps-detect-mowing-using-satellite-data</t>
+  </si>
+  <si>
+    <t>SUVE - chatbot for questions about the emergency situation</t>
+  </si>
+  <si>
+    <t>https://eebot.ee/</t>
+  </si>
+  <si>
+    <t>Texta Toolkit - text analytics tasks</t>
+  </si>
+  <si>
+    <t>https://www.texta.ee/home</t>
+  </si>
+  <si>
+    <t>Traffic load - machine vision for collecting information</t>
+  </si>
+  <si>
+    <t>https://www.kratid.ee/tlt-kasutuslugu</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>X-Road - data excange anomalies</t>
+  </si>
+  <si>
+    <t>https://www.kratid.ee/ria-kasutuslugu</t>
+  </si>
+  <si>
+    <t>AuroraAI  - Programme with many AI examples.</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>https://vm.fi/documents/10623/13292513/AuroraAI+development+and+implementation+plan+2019%E2%80%932023.pdf/7c96ee87-2b0e-dadd-07cd-0235352fc6f9/AuroraAI+development+and+implementation+plan+2019%E2%80%932023.pdf</t>
+  </si>
+  <si>
+    <t>Health n.e.c.</t>
+  </si>
+  <si>
+    <t>Case Fiva (RPA) - support the Financial supervisory Authority</t>
+  </si>
+  <si>
+    <t>https://julkaisut.valtioneuvosto.fi/bitstream/handle/10024/161688/41_19_Leading%20the%20way%20into%20the%20age%20of%20artificial%20intelligence.pdf?sequence=4</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>Verontrustingen - enabling accurate predictions to detect day-care services which require further inspection</t>
-  </si>
-  <si>
-    <t>https://www.dialogic.nl/wp-content/uploads/2018/06/VTOM-Small-Kids-Big-Data-Frank-Bongers-mei-2018.pdf</t>
-  </si>
-  <si>
-    <t>Social protection</t>
-  </si>
-  <si>
-    <t>Family and children.</t>
-  </si>
-  <si>
-    <t>Walloon - Agricultural subsidy monitoring with the use of GeoAI</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/sites/default/files/1._location_intelligence_-_gartner_v1.2.pdf</t>
-  </si>
-  <si>
-    <t>Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
-    <t>Plovdic - city Concierge Chatbot</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>https://umni.bg/en/plovdiv-city-concierge-chatbot/</t>
-  </si>
-  <si>
-    <t>Andrija - virtual assistant supporting advising suspected COVID-19 infections</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>https://andrija.ai/</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Public health services.</t>
-  </si>
-  <si>
-    <t>Hope - chatbot informing work of the Civil Protection Staff</t>
-  </si>
-  <si>
-    <t>https://www.themayor.eu/en/a/view/coronavirus-chatbot-educates-the-citizens-of-vinkovci-4796</t>
-  </si>
-  <si>
-    <t>WaterAnalytics - water quality monitoring</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>https://www.wateranalytics.eu/</t>
-  </si>
-  <si>
-    <t>Housing and community amenities</t>
-  </si>
-  <si>
-    <t>Water supply.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAIN - smart Water optimising energy consumption </t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>https://www.aquatechtrade.com/news/article/video-story-digital-denmark/</t>
-  </si>
-  <si>
-    <t>Corti's AI - emergency medical services real-time speech analysis for cardiac predictions</t>
-  </si>
-  <si>
-    <t>https://www.weforum.org/agenda/2018/06/this-ai-detects-cardiac-arrests-during-emergency-calls/</t>
-  </si>
-  <si>
-    <t>Audio processing</t>
-  </si>
-  <si>
-    <t>Erhvervsstyrelsen - Detection of errors in business statements</t>
-  </si>
-  <si>
-    <t>https://joinup.ec.europa.eu/sites/default/files/custom-page/attachment/2020-07/Study%20on%20public%20sector%20data%20strategies%2C%20policies%20and%20governance%20%E2%80%93%20ANNEX%20Case%20studies.pdf</t>
-  </si>
-  <si>
-    <t>Kiri - chatbot for citizens' enquiries</t>
-  </si>
-  <si>
-    <t>https://www.frederiksberg.dk/nyheder/frederiksberg-kommune-deltager-i-forsog-med-chatbot</t>
-  </si>
-  <si>
-    <t>Datel - Speed cameras for detecting speeding violations</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>https://www.datel.eu/en/solutions/e-government-solutions/item/417</t>
-  </si>
-  <si>
-    <t>Enhanced Care Management - prediction model</t>
-  </si>
-  <si>
-    <t>https://www.kratid.ee/haigekassa-kasutuslug</t>
-  </si>
-  <si>
-    <t>e-Residency - Chatbot for customer assistance</t>
-  </si>
-  <si>
-    <t>https://medium.com/e-residency-blog/how-we-use-ai-to-help-users-get-answers-instantly-and-increase-customer-satisfaction-95d1a06caad</t>
-  </si>
-  <si>
-    <t>Hans - A system for preparing of verbatim reports</t>
-  </si>
-  <si>
-    <t>https://m.riigikogu.ee/en/press-releases/others/the-riigikogu-has-a-new-system-for-making-verbatim-reports/</t>
-  </si>
-  <si>
-    <t>Iti - chatbot for Statistics Estonia</t>
-  </si>
-  <si>
-    <t>https://www.kratid.ee/statistikaameti-kasutuslugu</t>
-  </si>
-  <si>
-    <t>OTT - predicting employment pathways</t>
-  </si>
-  <si>
-    <t>https://e-estonia.com/new-e-estonia-factsheet-national-ai-kratt-strategy/</t>
-  </si>
-  <si>
-    <t>Unemployment.</t>
-  </si>
-  <si>
-    <t>Riigikogu - Language speech synthesiser fror the Estonian Parliament</t>
-  </si>
-  <si>
-    <t>https://www.err.ee/1134953/eesti-viimaste-stenografistide-too-vottis-ule-robot</t>
-  </si>
-  <si>
-    <t>SATIKAS -  detecting the agricultural grasslands changes</t>
-  </si>
-  <si>
-    <t>https://kosmos.ut.ee/en/news/information-system-satikas-helps-detect-mowing-using-satellite-data</t>
-  </si>
-  <si>
-    <t>SUVE - chatbot for questions about the emergency situation</t>
-  </si>
-  <si>
-    <t>https://eebot.ee/</t>
-  </si>
-  <si>
-    <t>Texta Toolkit - text analytics tasks</t>
-  </si>
-  <si>
-    <t>https://www.texta.ee/home</t>
-  </si>
-  <si>
-    <t>Traffic load - machine vision for collecting information</t>
-  </si>
-  <si>
-    <t>https://www.kratid.ee/tlt-kasutuslugu</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>X-Road - data excange anomalies</t>
-  </si>
-  <si>
-    <t>https://www.kratid.ee/ria-kasutuslugu</t>
-  </si>
-  <si>
-    <t>AuroraAI  - Programme with many AI examples.</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>https://vm.fi/documents/10623/13292513/AuroraAI+development+and+implementation+plan+2019%E2%80%932023.pdf/7c96ee87-2b0e-dadd-07cd-0235352fc6f9/AuroraAI+development+and+implementation+plan+2019%E2%80%932023.pdf</t>
-  </si>
-  <si>
-    <t>Health n.e.c.</t>
-  </si>
-  <si>
-    <t>Case Fiva (RPA) - support the Financial supervisory Authority</t>
-  </si>
-  <si>
-    <t>https://julkaisut.valtioneuvosto.fi/bitstream/handle/10024/161688/41_19_Leading%20the%20way%20into%20the%20age%20of%20artificial%20intelligence.pdf?sequence=4</t>
-  </si>
-  <si>
     <t>Helsinki HUH - Intensive care for premature baby</t>
   </si>
   <si>
@@ -594,12 +594,18 @@
     <t>Knowledge representation</t>
   </si>
   <si>
+    <t>Automatic decision making of the Electronic Declaration System of the State Revenue Service</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>https://www.vid.gov.lv/en/electronic-declaration-system</t>
+  </si>
+  <si>
     <t xml:space="preserve">FITS ITEMS - road safety </t>
   </si>
   <si>
-    <t>Latvia</t>
-  </si>
-  <si>
     <t>https://investinlatvia.org/en/key-sectors/sectors/smart-city</t>
   </si>
   <si>
@@ -609,6 +615,12 @@
     <t>https://ec.europa.eu/cefdigital/wiki/download/attachments/61932141/2_04_Janis%20Ziedins_Artus%20Vasiljevskis_Hugo.lv-AI_powered_service.pdf?version=1&amp;modificationDate=1544438787726&amp;api=v2</t>
   </si>
   <si>
+    <t>LAA - Pilot lung cancer risk assessment</t>
+  </si>
+  <si>
+    <t>https://issuu.com/rigastehniskauniversitate/docs/innovation_2018_rudens_new_eng_link/5</t>
+  </si>
+  <si>
     <t>Toms - chatbot facilitating customer communication with the State Revenue service</t>
   </si>
   <si>
@@ -621,6 +633,12 @@
     <t>https://oecd-opsi.org/innovations/una-the-first-virtual-assistant-of-public-administration-in-latvia/</t>
   </si>
   <si>
+    <t>VARIS - Reviews all the applicants to Rural Support Service</t>
+  </si>
+  <si>
+    <t>https://www.lad.gov.lv/en/news/the-robot-varis-has-started-work-at-the-rural-support-service-of-latvia-892</t>
+  </si>
+  <si>
     <t>FCIS - machine learning to identify suspicious patterns (trade, financial flows)</t>
   </si>
   <si>
@@ -636,21 +654,66 @@
     <t>https://koronastop.lrv.lt/</t>
   </si>
   <si>
+    <t>Amberscript - Automated speech translation for public organisations</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>https://www.amberscript.com/en/news/amberscript-makes-council-meetings-of-dutch-municipalities-accessible-to-the-deaf-and-hearing-impaired</t>
+  </si>
+  <si>
     <t>ANPR - car plate recognition</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>https://www.politie.nl/onderwerpen/anpr.html</t>
   </si>
   <si>
+    <t>Cameras - Detection holding a phone in car</t>
+  </si>
+  <si>
+    <t>https://www.om.nl/actueel/nieuws/2020/11/12/openbaar-ministerie-start-digitale-handhaving-op-handheld-telefoongebruik-achter-het-stuur</t>
+  </si>
+  <si>
     <t>CAS - crime anticipation system</t>
   </si>
   <si>
     <t>http://ceur-ws.org/Vol-2103/paper_6.pdf</t>
   </si>
   <si>
+    <t>Rotterdam ‚Äì Improving the usage of rooftops</t>
+  </si>
+  <si>
+    <t>http://www.dssgfellowship.org/project/identifying-rooftop-usage-in-rotterdam/?portfolioID=15901</t>
+  </si>
+  <si>
+    <t>Housing and community amenities n.e.c.</t>
+  </si>
+  <si>
+    <t>RWS - Machine learning for road accident predictions</t>
+  </si>
+  <si>
+    <t>http://www.dssgfellowship.org/project/rijkswaterstaat-netherlands/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHAP - Holiday rental home fraud</t>
+  </si>
+  <si>
+    <t>https://algoritmeregister.amsterdam.nl/vakantieverhuur-woningfraude/</t>
+  </si>
+  <si>
+    <t>Housing.</t>
+  </si>
+  <si>
+    <t>SIA - Notificiations public space</t>
+  </si>
+  <si>
+    <t>https://tada.city/en/nieuws/algorithms-for-more-fairness-in-the-city/</t>
+  </si>
+  <si>
+    <t>Optimisation</t>
+  </si>
+  <si>
     <t>SyRi - detect welfare fraud</t>
   </si>
   <si>
@@ -660,6 +723,18 @@
     <t>Social protection n.e.c.</t>
   </si>
   <si>
+    <t>Xomnia - The Burglary Predictor</t>
+  </si>
+  <si>
+    <t>https://www.xomnia.com/burglary-prediction-for-the-municipality-of-utrecht/</t>
+  </si>
+  <si>
+    <t>Xoomia - Law enforcement optimization system</t>
+  </si>
+  <si>
+    <t>https://www.xomnia.com/law-enforcement-optimization-at-amsterdam/</t>
+  </si>
+  <si>
     <t>HAL - classification of documents</t>
   </si>
   <si>
@@ -678,6 +753,12 @@
     <t>https://www.etapasproject.eu/usecases/post-3/</t>
   </si>
   <si>
+    <t>Lanekassen - Improve control on students with loan payments and identification</t>
+  </si>
+  <si>
+    <t>https://norwaytoday.info/education/artificial-intelligence-revealed-more-loan-fund-cheating/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norway Chatbot - chatbot for public administrations </t>
   </si>
   <si>
@@ -702,10 +783,16 @@
     <t>Military defence.</t>
   </si>
   <si>
+    <t>Fraud Detection COVID-19 support</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>https://www.experian.com.pl/en/business/identity-and-fraud/fraud-prevention-responses</t>
+  </si>
+  <si>
     <t>Home Quarantine - app on COVID-19 risk</t>
-  </si>
-  <si>
-    <t>Poland</t>
   </si>
   <si>
     <t>https://www.gov.pl/web/cyfryzacja/aplikacja-kwarantanna-domowa--ruszyl-proces-jej-udostepniania</t>
@@ -947,7 +1034,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{8FD796D4-15B7-1B4F-ADD1-576A14ED193A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{8E77E74D-5A17-CB49-9F6D-DEE46350D111}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1246,8 +1333,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9982E8E7-C797-E643-93F0-A8C19BFB35C5}">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C2D1B1-08A8-6C41-8005-AA19C36CFBAC}">
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1460,7 +1547,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1471,7 +1558,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1480,21 +1567,21 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1503,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -1512,21 +1599,21 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1540,131 +1627,131 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
         <v>53</v>
-      </c>
-      <c r="G14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
         <v>60</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
       </c>
       <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
         <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
       <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
         <v>53</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -1678,16 +1765,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1701,19 +1788,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -1724,39 +1811,39 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
       </c>
       <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
         <v>53</v>
-      </c>
-      <c r="G21" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1770,16 +1857,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
         <v>79</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1793,16 +1880,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
         <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1816,39 +1903,39 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
         <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
         <v>86</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1862,16 +1949,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
         <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
@@ -1880,44 +1967,44 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
         <v>90</v>
       </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
         <v>53</v>
-      </c>
-      <c r="G28" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1931,16 +2018,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -1949,21 +2036,21 @@
         <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
         <v>97</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>98</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
@@ -1977,42 +2064,42 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
         <v>100</v>
       </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
         <v>101</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
         <v>103</v>
       </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>104</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -2026,7 +2113,7 @@
         <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -2038,7 +2125,7 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>107</v>
@@ -2049,7 +2136,7 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -2072,7 +2159,7 @@
         <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -2095,7 +2182,7 @@
         <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -2104,7 +2191,7 @@
         <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
         <v>33</v>
@@ -2118,7 +2205,7 @@
         <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -2199,10 +2286,10 @@
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2219,7 +2306,7 @@
         <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -2242,13 +2329,13 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" t="s">
         <v>53</v>
-      </c>
-      <c r="G43" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2268,10 +2355,10 @@
         <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2380,7 +2467,7 @@
         <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -2452,10 +2539,10 @@
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2478,7 +2565,7 @@
         <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2518,7 +2605,7 @@
         <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -2541,7 +2628,7 @@
         <v>160</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
         <v>161</v>
@@ -2567,7 +2654,7 @@
         <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
         <v>165</v>
@@ -2613,7 +2700,7 @@
         <v>172</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s">
         <v>173</v>
@@ -2639,7 +2726,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2702,13 +2789,13 @@
         <v>184</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2725,13 +2812,13 @@
         <v>186</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2754,7 +2841,7 @@
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2771,13 +2858,13 @@
         <v>190</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2785,82 +2872,82 @@
         <v>191</v>
       </c>
       <c r="B67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
         <v>192</v>
       </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>193</v>
-      </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
         <v>194</v>
       </c>
-      <c r="B68" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" t="s">
-        <v>195</v>
-      </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
         <v>196</v>
       </c>
-      <c r="B69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" t="s">
-        <v>198</v>
-      </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
         <v>199</v>
-      </c>
-      <c r="B70" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" t="s">
-        <v>200</v>
       </c>
       <c r="E70" t="s">
         <v>32</v>
@@ -2869,45 +2956,45 @@
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
         <v>201</v>
       </c>
-      <c r="B71" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>202</v>
-      </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
         <v>204</v>
       </c>
-      <c r="B72" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>206</v>
-      </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
@@ -2915,251 +3002,251 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E75" t="s">
         <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="F76" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="F77" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>223</v>
+      </c>
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" t="s">
         <v>224</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" t="s">
-        <v>227</v>
-      </c>
-      <c r="E80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B81" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -3168,47 +3255,47 @@
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B84" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
         <v>234</v>
       </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" t="s">
-        <v>237</v>
-      </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -3219,16 +3306,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -3237,67 +3324,67 @@
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B88" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" t="s">
+        <v>243</v>
+      </c>
+      <c r="G88" t="s">
         <v>244</v>
-      </c>
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" t="s">
-        <v>247</v>
-      </c>
-      <c r="E88" t="s">
-        <v>39</v>
-      </c>
-      <c r="F88" t="s">
-        <v>161</v>
-      </c>
-      <c r="G88" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E89" t="s">
         <v>32</v>
@@ -3311,99 +3398,99 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E90" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G90" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E91" t="s">
         <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B92" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B93" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E93" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B94" t="s">
         <v>258</v>
@@ -3412,176 +3499,475 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E94" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B95" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B96" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>270</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B97" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B98" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>276</v>
+      </c>
+      <c r="E101" t="s">
+        <v>104</v>
+      </c>
+      <c r="F101" t="s">
+        <v>161</v>
+      </c>
+      <c r="G101" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>278</v>
+      </c>
+      <c r="B102" t="s">
+        <v>273</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>279</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>280</v>
       </c>
-      <c r="B101" t="s">
-        <v>272</v>
-      </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="B103" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
         <v>281</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E103" t="s">
+        <v>282</v>
+      </c>
+      <c r="F103" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>285</v>
+      </c>
+      <c r="E104" t="s">
         <v>32</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F104" t="s">
         <v>22</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>286</v>
+      </c>
+      <c r="B105" t="s">
+        <v>287</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>288</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>289</v>
+      </c>
+      <c r="B106" t="s">
+        <v>287</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>290</v>
+      </c>
+      <c r="E106" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>291</v>
+      </c>
+      <c r="B107" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>292</v>
+      </c>
+      <c r="E107" t="s">
+        <v>172</v>
+      </c>
+      <c r="F107" t="s">
+        <v>41</v>
+      </c>
+      <c r="G107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>294</v>
+      </c>
+      <c r="B108" t="s">
+        <v>295</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>296</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" t="s">
+        <v>295</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>298</v>
+      </c>
+      <c r="E109" t="s">
+        <v>104</v>
+      </c>
+      <c r="F109" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>300</v>
+      </c>
+      <c r="B110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>302</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>303</v>
+      </c>
+      <c r="B111" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>304</v>
+      </c>
+      <c r="E111" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>305</v>
+      </c>
+      <c r="B112" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>306</v>
+      </c>
+      <c r="E112" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" t="s">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>307</v>
+      </c>
+      <c r="B113" t="s">
+        <v>301</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>308</v>
+      </c>
+      <c r="E113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
+        <v>52</v>
+      </c>
+      <c r="G113" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>309</v>
+      </c>
+      <c r="B114" t="s">
+        <v>301</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>310</v>
+      </c>
+      <c r="E114" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Export-JRC-Data-Catalogue.xlsx
+++ b/Export-JRC-Data-Catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8073896-A0FC-9D4A-B2E0-9E61DE2029D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{622A07E4-103F-D245-939E-85CFE8DE0B89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{327AD222-D1F2-A546-9D0B-569D735EB7A3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Export_JRC_Data_Catalogue" localSheetId="0">Sheet1!$A$1:$G$114</definedName>
+    <definedName name="Export_JRC_Data_Catalogue_1" localSheetId="0">Sheet1!$A$1:$G$123</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{2D8CDD24-7D3E-3647-82AA-6855D6B09C5E}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{A2AC2D54-16F4-8B45-A563-97ADB21F8F92}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/Export-JRC-Data-Catalogue.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="330">
   <si>
     <t>title</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Health n.e.c.</t>
   </si>
   <si>
-    <t>Case Fiva (RPA) - support the Financial supervisory Authority</t>
-  </si>
-  <si>
     <t>https://julkaisut.valtioneuvosto.fi/bitstream/handle/10024/161688/41_19_Leading%20the%20way%20into%20the%20age%20of%20artificial%20intelligence.pdf?sequence=4</t>
   </si>
   <si>
@@ -696,9 +693,6 @@
     <t>http://www.dssgfellowship.org/project/rijkswaterstaat-netherlands/</t>
   </si>
   <si>
-    <t xml:space="preserve"> SHAP - Holiday rental home fraud</t>
-  </si>
-  <si>
     <t>https://algoritmeregister.amsterdam.nl/vakantieverhuur-woningfraude/</t>
   </si>
   <si>
@@ -783,9 +777,6 @@
     <t>Military defence.</t>
   </si>
   <si>
-    <t>Fraud Detection COVID-19 support</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
@@ -979,6 +970,72 @@
   </si>
   <si>
     <t>https://www.tandfonline.com/doi/pdf/10.1080/13600834.2018.1458455</t>
+  </si>
+  <si>
+    <t>Case Fiva (RPA) - Support the Financial supervisory Authority</t>
+  </si>
+  <si>
+    <t>SHAP - Holiday rental home fraud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway AI for Diagnose and treating Breast cancer </t>
+  </si>
+  <si>
+    <t>https://sciencenorway.no/breast-cancer-cancer-technology/norwegian-researchers-are-developing-a-new-method-for-detecting-breast-cancer/1739574</t>
+  </si>
+  <si>
+    <t>Statnett - Forecast service for weather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datascience.statnett.no/2018/04/27/from-idea-to-deployment-a-service-for-estimation-of-failure-probability-on-overhead-lines-based-on-the-current-weather-forecast/ </t>
+  </si>
+  <si>
+    <t>Fuel and energy</t>
+  </si>
+  <si>
+    <t>Canard - Speed camera system to flag potential traffic rules infringement</t>
+  </si>
+  <si>
+    <t>https://www.canard.gitd.gov.pl/cms/web/portal/o-projekcie-pois</t>
+  </si>
+  <si>
+    <t>Poland - Fraud Detection COVID-19 support</t>
+  </si>
+  <si>
+    <t>Data2Help - optimizing the allocation of resources for a better and faster response to medical emergencies</t>
+  </si>
+  <si>
+    <t>https://www.alert-online.com/br/news/health-portal/inteligencia-artificial-vai-ser-aplicada-as-emergencias-medicas</t>
+  </si>
+  <si>
+    <t>Derm.AI</t>
+  </si>
+  <si>
+    <t>https://rse-siga.spms.min-saude.pt/category/rse-siga-derm-ai/</t>
+  </si>
+  <si>
+    <t>EPISA - Entity and property inference for semantic archives</t>
+  </si>
+  <si>
+    <t>https://www.inesctec.pt/en/news/inesc-tec-wants-to-digitise-the-largest-documental-collection-of-portugal#about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failstopper - Study the compressed air system of the vehicle </t>
+  </si>
+  <si>
+    <t>https://www.inesctec.pt/en/projects/failstopper#intro</t>
+  </si>
+  <si>
+    <t>IPOscore - Predicting complications surgery and prognosis  of cancer patients</t>
+  </si>
+  <si>
+    <t>https://www.fct.pt/media/docs/Brochura_ResearchinDataScienceandAIappliedtoPA.pdf</t>
+  </si>
+  <si>
+    <t>Portugal -  Predicting long term unemployment</t>
+  </si>
+  <si>
+    <t>https://online.ucpress.edu/gp/article-abstract/1/1/12908/110741</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1091,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{8E77E74D-5A17-CB49-9F6D-DEE46350D111}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue_1" connectionId="1" xr16:uid="{B6E698B2-EBEB-5944-AA96-59044B4BAA84}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1334,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C2D1B1-08A8-6C41-8005-AA19C36CFBAC}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2087,7 +2144,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s">
         <v>99</v>
@@ -2096,10 +2153,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -2110,7 +2167,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
         <v>99</v>
@@ -2119,7 +2176,7 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -2128,12 +2185,12 @@
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
@@ -2142,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -2156,7 +2213,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
         <v>99</v>
@@ -2165,7 +2222,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -2179,7 +2236,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
         <v>99</v>
@@ -2188,7 +2245,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -2202,7 +2259,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
         <v>99</v>
@@ -2211,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -2225,16 +2282,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
         <v>116</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
         <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -2248,16 +2305,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
         <v>119</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>120</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -2271,16 +2328,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -2294,19 +2351,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
         <v>123</v>
       </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>124</v>
-      </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -2317,16 +2374,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
         <v>125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>126</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -2340,19 +2397,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
         <v>127</v>
       </c>
-      <c r="B44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>128</v>
-      </c>
-      <c r="E44" t="s">
-        <v>129</v>
       </c>
       <c r="F44" t="s">
         <v>41</v>
@@ -2363,16 +2420,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
         <v>130</v>
-      </c>
-      <c r="B45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s">
-        <v>131</v>
       </c>
       <c r="E45" t="s">
         <v>32</v>
@@ -2381,21 +2438,21 @@
         <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
         <v>133</v>
-      </c>
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>134</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -2409,16 +2466,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
         <v>135</v>
-      </c>
-      <c r="B47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" t="s">
-        <v>136</v>
       </c>
       <c r="E47" t="s">
         <v>32</v>
@@ -2432,16 +2489,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
         <v>138</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" t="s">
-        <v>139</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -2455,16 +2512,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
         <v>140</v>
-      </c>
-      <c r="B49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" t="s">
-        <v>141</v>
       </c>
       <c r="E49" t="s">
         <v>66</v>
@@ -2473,24 +2530,24 @@
         <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2501,16 +2558,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
         <v>145</v>
-      </c>
-      <c r="B51" t="s">
-        <v>146</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -2524,16 +2581,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
         <v>148</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
         <v>149</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" t="s">
-        <v>150</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -2547,16 +2604,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
         <v>149</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -2570,39 +2627,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" t="s">
         <v>152</v>
-      </c>
-      <c r="B54" t="s">
-        <v>153</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
         <v>154</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
         <v>156</v>
-      </c>
-      <c r="B55" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
-        <v>157</v>
       </c>
       <c r="E55" t="s">
         <v>66</v>
@@ -2616,39 +2673,39 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" t="s">
         <v>158</v>
-      </c>
-      <c r="B56" t="s">
-        <v>159</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
         <v>160</v>
       </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>161</v>
-      </c>
-      <c r="G56" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
         <v>32</v>
@@ -2657,70 +2714,70 @@
         <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
         <v>166</v>
       </c>
-      <c r="B58" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
         <v>167</v>
       </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>168</v>
-      </c>
-      <c r="G58" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
         <v>170</v>
       </c>
-      <c r="B59" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>171</v>
-      </c>
-      <c r="E59" t="s">
-        <v>172</v>
       </c>
       <c r="F59" t="s">
         <v>52</v>
       </c>
       <c r="G59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
       </c>
       <c r="D60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" t="s">
         <v>175</v>
-      </c>
-      <c r="E60" t="s">
-        <v>176</v>
       </c>
       <c r="F60" t="s">
         <v>33</v>
@@ -2731,17 +2788,17 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
         <v>177</v>
       </c>
-      <c r="B61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" t="s">
-        <v>178</v>
-      </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
@@ -2749,44 +2806,44 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
       </c>
       <c r="D62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" t="s">
         <v>180</v>
       </c>
-      <c r="E62" t="s">
-        <v>181</v>
-      </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" t="s">
         <v>182</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
         <v>183</v>
-      </c>
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" t="s">
-        <v>184</v>
       </c>
       <c r="E63" t="s">
         <v>32</v>
@@ -2800,16 +2857,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
         <v>185</v>
-      </c>
-      <c r="B64" t="s">
-        <v>183</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="s">
-        <v>186</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -2823,16 +2880,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
         <v>187</v>
-      </c>
-      <c r="B65" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
-        <v>188</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2846,39 +2903,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
         <v>189</v>
       </c>
-      <c r="B66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
-        <v>190</v>
-      </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F66" t="s">
         <v>52</v>
       </c>
       <c r="G66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
         <v>191</v>
-      </c>
-      <c r="B67" t="s">
-        <v>183</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>192</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2892,16 +2949,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
         <v>193</v>
-      </c>
-      <c r="B68" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" t="s">
-        <v>194</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2915,19 +2972,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
         <v>195</v>
       </c>
-      <c r="B69" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>196</v>
-      </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
         <v>33</v>
@@ -2938,16 +2995,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" t="s">
         <v>197</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
         <v>198</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>199</v>
       </c>
       <c r="E70" t="s">
         <v>32</v>
@@ -2956,21 +3013,21 @@
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
         <v>200</v>
-      </c>
-      <c r="B71" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>201</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2984,16 +3041,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" t="s">
         <v>202</v>
-      </c>
-      <c r="B72" t="s">
-        <v>203</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -3007,16 +3064,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
@@ -3030,16 +3087,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
         <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>208</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
@@ -3053,16 +3110,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E75" t="s">
         <v>32</v>
@@ -3076,88 +3133,88 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E76" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="F76" t="s">
         <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
         <v>214</v>
       </c>
-      <c r="B77" t="s">
-        <v>203</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="s">
-        <v>215</v>
-      </c>
       <c r="E77" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F78" t="s">
         <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -3168,16 +3225,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E80" t="s">
         <v>32</v>
@@ -3186,21 +3243,21 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E81" t="s">
         <v>32</v>
@@ -3214,16 +3271,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -3237,39 +3294,39 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
         <v>229</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
         <v>230</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" t="s">
-        <v>231</v>
-      </c>
-      <c r="E83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B84" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -3283,16 +3340,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
@@ -3306,203 +3363,203 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G86" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B87" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="E88" t="s">
         <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E89" t="s">
         <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E90" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="G90" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F92" t="s">
         <v>52</v>
       </c>
       <c r="G92" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B94" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
@@ -3513,246 +3570,246 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="B96" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G96" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="B97" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F97" t="s">
         <v>52</v>
       </c>
       <c r="G97" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="B98" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="B100" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G100" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="B101" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="F101" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>277</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B102" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B103" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C103" t="s">
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="E103" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B104" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B105" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3761,67 +3818,67 @@
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B106" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="E106" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B107" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E107" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>293</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -3835,139 +3892,346 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="B109" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="E109" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>299</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="B110" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="B111" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E111" t="s">
         <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="B112" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>95</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B113" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="E113" t="s">
         <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B114" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>285</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>286</v>
+      </c>
+      <c r="B115" t="s">
+        <v>284</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>287</v>
+      </c>
+      <c r="E115" t="s">
+        <v>66</v>
+      </c>
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>288</v>
+      </c>
+      <c r="B116" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>289</v>
+      </c>
+      <c r="E116" t="s">
+        <v>171</v>
+      </c>
+      <c r="F116" t="s">
+        <v>41</v>
+      </c>
+      <c r="G116" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>291</v>
+      </c>
+      <c r="B117" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>293</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>294</v>
+      </c>
+      <c r="B118" t="s">
+        <v>292</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>295</v>
+      </c>
+      <c r="E118" t="s">
+        <v>103</v>
+      </c>
+      <c r="F118" t="s">
+        <v>33</v>
+      </c>
+      <c r="G118" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>299</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
         <v>301</v>
       </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" t="s">
-        <v>310</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="E120" t="s">
         <v>32</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F120" t="s">
+        <v>52</v>
+      </c>
+      <c r="G120" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>302</v>
+      </c>
+      <c r="B121" t="s">
+        <v>298</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>303</v>
+      </c>
+      <c r="E121" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>304</v>
+      </c>
+      <c r="B122" t="s">
+        <v>298</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>305</v>
+      </c>
+      <c r="E122" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" t="s">
+        <v>52</v>
+      </c>
+      <c r="G122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>306</v>
+      </c>
+      <c r="B123" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>307</v>
+      </c>
+      <c r="E123" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" t="s">
         <v>22</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G123" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Export-JRC-Data-Catalogue.xlsx
+++ b/Export-JRC-Data-Catalogue.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vaccalo/AIWatchT6/AI-Watch-T6-public-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{622A07E4-103F-D245-939E-85CFE8DE0B89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4286EC73-DABD-5548-B481-8E22BEFB5E3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{327AD222-D1F2-A546-9D0B-569D735EB7A3}"/>
+    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{916FA7BB-C782-5345-A3BA-8C0D65AAAC94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Export_JRC_Data_Catalogue_1" localSheetId="0">Sheet1!$A$1:$G$123</definedName>
+    <definedName name="Export_JRC_Data_Catalogue" localSheetId="0">Sheet1!$A$1:$G$143</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A2AC2D54-16F4-8B45-A563-97ADB21F8F92}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/lorenzinovaccari/github-AIWatchT6/AI-Watch-T6-public-data/Export-JRC-Data-Catalogue.csv" decimal="," thousands="." tab="0" comma="1">
+  <connection id="1" xr16:uid="{0E162D7F-43B3-AF47-9BE0-9CB6F1F171B9}" name="Export-JRC-Data-Catalogue" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/vaccalo/AIWatchT6/AI-Watch-T6-public-data/Export-JRC-Data-Catalogue.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="369">
   <si>
     <t>title</t>
   </si>
@@ -69,7 +69,7 @@
     <t>COFOG second level</t>
   </si>
   <si>
-    <t>Mona - public chatbot on relevant questions for companies on the subject of the corona crisis and the economy</t>
+    <t>Mona - Public chatbot on relevant questions for companies on the subject of the corona crisis and the economy</t>
   </si>
   <si>
     <t>Austria</t>
@@ -90,7 +90,7 @@
     <t>Executive and legislative organs, financial and fiscal affairs, external affairs.</t>
   </si>
   <si>
-    <t>AcPaas - technical documents comparison</t>
+    <t>AcPaas - Technical procurement documents comparison</t>
   </si>
   <si>
     <t>Belgium</t>
@@ -105,7 +105,7 @@
     <t>General public services n.e.c.</t>
   </si>
   <si>
-    <t>Camera System - mobile phone usage</t>
+    <t>Camera System - Mobile phone usage on vehicles</t>
   </si>
   <si>
     <t>https://www.vias.be/nl/newsroom/succesvolle-test-met-camerasysteem-om-gsm-gebruik-achter-het-stuur-te-detecteren-/</t>
@@ -120,7 +120,7 @@
     <t>Police Services</t>
   </si>
   <si>
-    <t>CitizenLab - citizen participation platform</t>
+    <t>CitizenLab - Citizen participation platform</t>
   </si>
   <si>
     <t>https://www.citizenlab.co/blog/product-update/natural-language-processing-at-citizenlab-how-machine-learning-can-transform-citizen-engagement-projects/</t>
@@ -129,7 +129,7 @@
     <t>General services.</t>
   </si>
   <si>
-    <t>Flemish Infoline - automatic classification</t>
+    <t>Flemish Infoline - Automatic classification of incoming phone calls</t>
   </si>
   <si>
     <t>Regional</t>
@@ -138,7 +138,7 @@
     <t>https://www.innovatieveoverheidsopdrachten.be/en/projects/1700-supported-artificial-intelligence</t>
   </si>
   <si>
-    <t>ILVO - Multiple AI projects n the agricultural domain</t>
+    <t>ILVO - List of multiple AI projects in the agricultural domain</t>
   </si>
   <si>
     <t>https://ilvo.vlaanderen.be/en/search-results?q=Artificial+intelligence&amp;id=home&amp;l=en</t>
@@ -153,19 +153,19 @@
     <t>General economic, commercial and labour affair</t>
   </si>
   <si>
-    <t>Jobnet - reskilling, upskilling and retraining of people</t>
+    <t>Jobnet - Reskilling, upskilling and retraining of people</t>
   </si>
   <si>
     <t>https://www.agoria.be/nl/VDAB-gebruikt-AI-om-jobmatching-te-verrijken</t>
   </si>
   <si>
-    <t xml:space="preserve"> VDAB - chatbot for joob seekers</t>
+    <t>VDAB - Chatbot for joob seekers</t>
   </si>
   <si>
     <t>https://tracebrussel.be/nieuws/vdab-experimenteert-met-chatbots-en-tinderdienst</t>
   </si>
   <si>
-    <t>Verontrustingen - enabling accurate predictions to detect day-care services which require further inspection</t>
+    <t>Verontrustingen - Enabling accurate predictions to detect day-care services which require further inspection</t>
   </si>
   <si>
     <t>https://www.dialogic.nl/wp-content/uploads/2018/06/VTOM-Small-Kids-Big-Data-Frank-Bongers-mei-2018.pdf</t>
@@ -186,7 +186,7 @@
     <t>Agriculture, forestry, fishing and hunting</t>
   </si>
   <si>
-    <t>Plovdic - city Concierge Chatbot</t>
+    <t>Plovdic - City Concierge Chatbot</t>
   </si>
   <si>
     <t>Bulgaria</t>
@@ -195,7 +195,7 @@
     <t>https://umni.bg/en/plovdiv-city-concierge-chatbot/</t>
   </si>
   <si>
-    <t>Andrija - virtual assistant supporting advising suspected COVID-19 infections</t>
+    <t>Andrija - Virtual assistant supporting advising suspected COVID-19 infections</t>
   </si>
   <si>
     <t>Croatia</t>
@@ -210,13 +210,13 @@
     <t>Public health services.</t>
   </si>
   <si>
-    <t>Hope - chatbot informing work of the Civil Protection Staff</t>
+    <t>Hope - Chatbot informing work of the Civil Protection Staff</t>
   </si>
   <si>
     <t>https://www.themayor.eu/en/a/view/coronavirus-chatbot-educates-the-citizens-of-vinkovci-4796</t>
   </si>
   <si>
-    <t>WaterAnalytics - water quality monitoring</t>
+    <t>WaterAnalytics - Water quality monitoring</t>
   </si>
   <si>
     <t>Cyprus</t>
@@ -231,7 +231,7 @@
     <t>Water supply.</t>
   </si>
   <si>
-    <t xml:space="preserve">CHAIN - smart Water optimising energy consumption </t>
+    <t xml:space="preserve">CHAIN - Smart Water optimising energy consumption </t>
   </si>
   <si>
     <t>Denmark</t>
@@ -240,7 +240,7 @@
     <t>https://www.aquatechtrade.com/news/article/video-story-digital-denmark/</t>
   </si>
   <si>
-    <t>Corti's AI - emergency medical services real-time speech analysis for cardiac predictions</t>
+    <t>Corti's AI - Emergency medical services real-time speech analysis for cardiac predictions</t>
   </si>
   <si>
     <t>https://www.weforum.org/agenda/2018/06/this-ai-detects-cardiac-arrests-during-emergency-calls/</t>
@@ -270,7 +270,7 @@
     <t>https://www.datel.eu/en/solutions/e-government-solutions/item/417</t>
   </si>
   <si>
-    <t>Enhanced Care Management - prediction model</t>
+    <t>Enhanced Care Management - Prediction model for hospitalisation/assistance</t>
   </si>
   <si>
     <t>https://www.kratid.ee/haigekassa-kasutuslug</t>
@@ -288,13 +288,13 @@
     <t>https://m.riigikogu.ee/en/press-releases/others/the-riigikogu-has-a-new-system-for-making-verbatim-reports/</t>
   </si>
   <si>
-    <t>Iti - chatbot for Statistics Estonia</t>
+    <t>Iti - Chatbot for Statistics Estonia</t>
   </si>
   <si>
     <t>https://www.kratid.ee/statistikaameti-kasutuslugu</t>
   </si>
   <si>
-    <t>OTT - predicting employment pathways</t>
+    <t>OTT - Predicting employment pathways</t>
   </si>
   <si>
     <t>https://e-estonia.com/new-e-estonia-factsheet-national-ai-kratt-strategy/</t>
@@ -309,25 +309,25 @@
     <t>https://www.err.ee/1134953/eesti-viimaste-stenografistide-too-vottis-ule-robot</t>
   </si>
   <si>
-    <t>SATIKAS -  detecting the agricultural grasslands changes</t>
+    <t>SATIKAS -  Detecting the agricultural grasslands changes</t>
   </si>
   <si>
     <t>https://kosmos.ut.ee/en/news/information-system-satikas-helps-detect-mowing-using-satellite-data</t>
   </si>
   <si>
-    <t>SUVE - chatbot for questions about the emergency situation</t>
+    <t>SUVE - Chatbot for questions about emergency situations</t>
   </si>
   <si>
     <t>https://eebot.ee/</t>
   </si>
   <si>
-    <t>Texta Toolkit - text analytics tasks</t>
+    <t>Texta Toolkit - Identyfying documents published without authorisation</t>
   </si>
   <si>
     <t>https://www.texta.ee/home</t>
   </si>
   <si>
-    <t>Traffic load - machine vision for collecting information</t>
+    <t>Traffic load - Machine vision for collecting information on traffic load</t>
   </si>
   <si>
     <t>https://www.kratid.ee/tlt-kasutuslugu</t>
@@ -336,7 +336,7 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>X-Road - data excange anomalies</t>
+    <t>X-Road AI - Detect anomalies and incidents in Data Exchange Layer</t>
   </si>
   <si>
     <t>https://www.kratid.ee/ria-kasutuslugu</t>
@@ -354,463 +354,568 @@
     <t>Health n.e.c.</t>
   </si>
   <si>
+    <t>Case Fiva (RPA) - Support the Financial supervisory Authority</t>
+  </si>
+  <si>
     <t>https://julkaisut.valtioneuvosto.fi/bitstream/handle/10024/161688/41_19_Leading%20the%20way%20into%20the%20age%20of%20artificial%20intelligence.pdf?sequence=4</t>
   </si>
   <si>
+    <t>Automated reasoning</t>
+  </si>
+  <si>
+    <t>Helsinki HUH - Intensive care for premature baby</t>
+  </si>
+  <si>
+    <t>https://www.helsinki.fi/en/news/healthier-world/artificial-intelligence-evaluate-brain-maturity-preterm-infants</t>
+  </si>
+  <si>
+    <t>Hospital services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamu - Chatbot about immigration processes </t>
+  </si>
+  <si>
+    <t>https://migri.fi/en/chat1</t>
+  </si>
+  <si>
+    <t>OuloBot - Virtual assistant for business</t>
+  </si>
+  <si>
+    <t>https://www.ouka.fi/oulu/oulubot/</t>
+  </si>
+  <si>
+    <t>PatRek - Chatbot for business</t>
+  </si>
+  <si>
+    <t>https://medium.com/inland/valtionhallinnon-chatbot-verkosto-neuvoo-ulkomaalaisia-yrityksen-perustamisessa-44eb1e0c4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VeroBot - Chatbot for citizens about tax management </t>
+  </si>
+  <si>
+    <t>https://www.vero.fi/en/e-file/mytax/</t>
+  </si>
+  <si>
+    <t>Aria - Chatbot answering retired people</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lassuranceretraite.fr/portail-info/sites/pub/hors-menu/actualites-nationales/retraite/2018/page-9.html </t>
+  </si>
+  <si>
+    <t>ClaudIA - Chatbot for the invoicing portal for purchases by public authorities</t>
+  </si>
+  <si>
+    <t>https://www.cio-online.com/actualites/lire-chorus-pro-aussi-aide-ses-utilisateurs-avec-un-chatbot-10199.html</t>
+  </si>
+  <si>
+    <t>Datakalab - Covid-19 Mask wearing  detection In some French cities</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/news/world-europe-52529981</t>
+  </si>
+  <si>
+    <t>French Fraud - Fraud detection value declarations</t>
+  </si>
+  <si>
+    <t>https://www.aiforhumanity.fr/pdfs/MissionVillani_Report_ENG-VF.pdf</t>
+  </si>
+  <si>
+    <t>IAlim - Targeting restaurant health inspections</t>
+  </si>
+  <si>
+    <t>https://agriculture.gouv.fr/telecharger/116478?token=34e41e9143e50e1be2324f7d9bf7f7fceffe7183e5e97acb34d333c90a70b5a6</t>
+  </si>
+  <si>
+    <t>LaBonneBo√Æte - Identification of companies with a high probability of hiring</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/social/BlobServlet?docId=20605&amp;langId=en</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>OpenJustice - Open case law, pseudonymization and enrichment of court decisions</t>
+  </si>
+  <si>
+    <t>https://entrepreneur-interet-general.etalab.gouv.fr/defis/2019/openjustice.html</t>
+  </si>
+  <si>
+    <t>Law courts</t>
+  </si>
+  <si>
+    <t>RenoiRH - Chatbot in HR management rules to facilitate access</t>
+  </si>
+  <si>
+    <t>https://www.soprahr.com/docs/librariesprovider45/Documents/customer-testimonials---temoignage-clients/t%C3%A9moignage_le-cisirh-innove-avec-son-chatbot-rh-docx.pdf?sfvrsn=7eb4345b_2</t>
+  </si>
+  <si>
+    <t>SignauxFaibles - Predictive analysis of business difficulties</t>
+  </si>
+  <si>
+    <t>https://beta.gouv.fr/startups/signaux-faibles.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Against pornography - Analysis of suspicious material </t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>https://www.behoerden-spiegel.de/2021/05/25/ki-im-kampf-gegen-kinderpornografie/</t>
+  </si>
+  <si>
+    <t>AI - ARC-D - Automatic Road Condition Detection</t>
+  </si>
+  <si>
+    <t>https://palaimon.io/blog/arcd</t>
+  </si>
+  <si>
+    <t>C-19 - Interdepartmental chatbot on the topic of Corona.</t>
+  </si>
+  <si>
+    <t>https://chatbot.it.bund.de/</t>
+  </si>
+  <si>
+    <t>Child benefit - Voice assistant for parents support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oeffentliche-it.de/documents/10181/14412/KI+im+Beh%C3%B6rdeneinsatz+-+Erfahrungen+und+Empfehlungen </t>
+  </si>
+  <si>
+    <t>Germany's Federal Office for Migrants and Refugees - Refugee Language Detection</t>
+  </si>
+  <si>
+    <t>https://www.dw.com/en/automatic-speech-analysis-software-used-to-verify-refugees-dialects/a-37980819</t>
+  </si>
+  <si>
+    <t>Public order and safety n.e.c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Govbot -  Administrative search engine for citizens' enquiries </t>
+  </si>
+  <si>
+    <t>https://publicplan.de/projekt/verwaltungssuchmaschine-nrw</t>
+  </si>
+  <si>
+    <t>Notification procedure - Automatic control of accident occurring at the workplace</t>
+  </si>
+  <si>
+    <t>Study certificates - Automatic recognition for applying for child benefit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERTH-MUKA - Public Organizations Multi-factor Misinformation Handling </t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>https://www.etapasproject.eu/usecases/post-4/</t>
+  </si>
+  <si>
+    <t>Home Quarantine App - Supporting the use of electronic control for home quarantine</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>https://metamorphosis.org.mk/wp-content/uploads/2021/04/algovrithms_2.0_report-2021.pdf</t>
+  </si>
+  <si>
+    <t>V√©da-KAFIR-ROBOTZSARU (‚ÄòRobocop‚Äô) - System Operated by the Police for Traffic Safety Automated Processing</t>
+  </si>
+  <si>
+    <t>The Dublin Beat - Citizen opinion analysis</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>https://smartdublin.ie/smart-dublin-explores-how-ai-social-media-can-help-improve-the-city-region/</t>
+  </si>
+  <si>
+    <t>R&amp;D general public services.</t>
+  </si>
+  <si>
+    <t>VDA - Voicebot on calls from Irish taxpayer on tax clearance</t>
+  </si>
+  <si>
+    <t>https://www.ops2020.gov.ie/actions/innovating-for-our-future/innovation/emerging-technology/artificial-intelligence/revenue-chatbot/</t>
+  </si>
+  <si>
+    <t>Borbot - Virtual assistant for museums</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>https://borbot.it/</t>
+  </si>
+  <si>
+    <t>Recreation, culture and religion</t>
+  </si>
+  <si>
+    <t>Cultural services.</t>
+  </si>
+  <si>
+    <t>Noovle - Management of health documentation</t>
+  </si>
+  <si>
+    <t>https://www.noovle.ch/project/arsenal-it-centro-veneto-ricerca-e-innovazione-per-la-sanita-digitale/</t>
+  </si>
+  <si>
+    <t>R&amp;D health.</t>
+  </si>
+  <si>
+    <t>Pierino - PIatform for the extraction and retrieval of online information</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/323280575_NLP_and_Public_Engagement_the_Case_of_the_Italian_School_Reform</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>R&amp;D education.</t>
+  </si>
+  <si>
+    <t>R1 - humanoid robot</t>
+  </si>
+  <si>
+    <t>https://www.dongnocchi.it/news-ed-eventi/@news/robot-e-realta-virtuale-a-technology-hub-ecco-la-riabilitazione-innovativa</t>
+  </si>
+  <si>
+    <t>Medical products, appliances and equipment.</t>
+  </si>
+  <si>
+    <t>Smart Planner - Navigation planning assistant</t>
+  </si>
+  <si>
+    <t>https://www.smartcommunitylab.it/app/</t>
+  </si>
+  <si>
+    <t>Planning and Scheduling</t>
+  </si>
+  <si>
+    <t>TALIA SF - Extract and organize knowledge coming from the analysis of a huge quantity of textual documents</t>
+  </si>
+  <si>
+    <t>https://social-and-creative.interreg-med.eu/no-cache/press-room/news/detail/actualites/the-sc-community-tools-the-semantic-framework/</t>
+  </si>
+  <si>
+    <t>Toscana Open Research - Allows users to access information through "queries" without having to know the technical terms</t>
+  </si>
+  <si>
+    <t>http://www.toscanaopenresearch.it/explore-the-data/#/</t>
+  </si>
+  <si>
+    <t>Knowledge representation</t>
+  </si>
+  <si>
+    <t>Automatic decision making of the Electronic Declaration System of the State Revenue Service</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>https://www.vid.gov.lv/en/electronic-declaration-system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITS ITEMS - Road safety </t>
+  </si>
+  <si>
+    <t>https://investinlatvia.org/en/key-sectors/sectors/smart-city</t>
+  </si>
+  <si>
+    <t>Hugo - Virtual Assistant for governments</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/cefdigital/wiki/download/attachments/61932141/2_04_Janis%20Ziedins_Artus%20Vasiljevskis_Hugo.lv-AI_powered_service.pdf?version=1&amp;modificationDate=1544438787726&amp;api=v2</t>
+  </si>
+  <si>
+    <t>LAA - Pilot lung cancer risk assessment</t>
+  </si>
+  <si>
+    <t>https://issuu.com/rigastehniskauniversitate/docs/innovation_2018_rudens_new_eng_link/5</t>
+  </si>
+  <si>
+    <t>Toms - Chatbot facilitating customer communication with the State Revenue service</t>
+  </si>
+  <si>
+    <t>https://www.vid.gov.lv/</t>
+  </si>
+  <si>
+    <t>UNA - Chatbot regarding the process of enterprise registration</t>
+  </si>
+  <si>
+    <t>https://oecd-opsi.org/innovations/una-the-first-virtual-assistant-of-public-administration-in-latvia/</t>
+  </si>
+  <si>
+    <t>VARIS - Reviews all the applicants to Rural Support Service</t>
+  </si>
+  <si>
+    <t>https://www.lad.gov.lv/en/news/the-robot-varis-has-started-work-at-the-rural-support-service-of-latvia-892</t>
+  </si>
+  <si>
+    <t>FCIS - Machine learning to identify suspicious patterns (trade, financial flows)</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>http://www.fntt.lt/lt/ivykiai/fntt-kartu-su-partneriais-pradeda-igyvendinti-europos-sajungos-moksliniu-tyrimu-ir-inovaciju-lesomis-remiama-projekta/3768</t>
+  </si>
+  <si>
+    <t>viLTe' - Chatbot answering relevant questions regarding the COVID-19</t>
+  </si>
+  <si>
+    <t>https://koronastop.lrv.lt/</t>
+  </si>
+  <si>
+    <t>Amberscript - Automated speech translation for public organisations</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>https://www.amberscript.com/en/news/amberscript-makes-council-meetings-of-dutch-municipalities-accessible-to-the-deaf-and-hearing-impaired</t>
+  </si>
+  <si>
+    <t>ANPR - Car plate recognition</t>
+  </si>
+  <si>
+    <t>https://www.politie.nl/onderwerpen/anpr.html</t>
+  </si>
+  <si>
+    <t>Cameras - Detection holding a phone in car</t>
+  </si>
+  <si>
+    <t>https://www.om.nl/actueel/nieuws/2020/11/12/openbaar-ministerie-start-digitale-handhaving-op-handheld-telefoongebruik-achter-het-stuur</t>
+  </si>
+  <si>
+    <t>CAS - Crime anticipation system</t>
+  </si>
+  <si>
+    <t>http://ceur-ws.org/Vol-2103/paper_6.pdf</t>
+  </si>
+  <si>
+    <t>Rotterdam ‚Äì Improving the usage of rooftops</t>
+  </si>
+  <si>
+    <t>http://www.dssgfellowship.org/project/identifying-rooftop-usage-in-rotterdam/?portfolioID=15901</t>
+  </si>
+  <si>
+    <t>Housing and community amenities n.e.c.</t>
+  </si>
+  <si>
+    <t>RWS - Machine learning for road accident predictions</t>
+  </si>
+  <si>
+    <t>http://www.dssgfellowship.org/project/rijkswaterstaat-netherlands/</t>
+  </si>
+  <si>
+    <t>SHAP - Holiday rental home fraud</t>
+  </si>
+  <si>
+    <t>https://algoritmeregister.amsterdam.nl/vakantieverhuur-woningfraude/</t>
+  </si>
+  <si>
+    <t>Housing.</t>
+  </si>
+  <si>
+    <t>SIA - Notificiations public space</t>
+  </si>
+  <si>
+    <t>https://tada.city/en/nieuws/algorithms-for-more-fairness-in-the-city/</t>
+  </si>
+  <si>
+    <t>Optimisation</t>
+  </si>
+  <si>
+    <t>SyRi - Detect welfare fraud</t>
+  </si>
+  <si>
+    <t>https://algorithmwatch.org/en/story/syri-netherlands-algorithm/</t>
+  </si>
+  <si>
+    <t>Social protection n.e.c.</t>
+  </si>
+  <si>
+    <t>Xomnia - The Burglary Predictor</t>
+  </si>
+  <si>
+    <t>https://www.xomnia.com/burglary-prediction-for-the-municipality-of-utrecht/</t>
+  </si>
+  <si>
+    <t>Xoomia - Law enforcement optimization system</t>
+  </si>
+  <si>
+    <t>https://www.xomnia.com/law-enforcement-optimization-at-amsterdam/</t>
+  </si>
+  <si>
+    <t>HAL - classification of documents</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>https://www.regjeringen.no/en/dokumenter/nasjonal-strategi-for-kunstig-intelligens/id2685594/?ch=4#id0022</t>
+  </si>
+  <si>
+    <t>Foreign economic aid.</t>
+  </si>
+  <si>
+    <t>Kari - Chatbot</t>
+  </si>
+  <si>
+    <t>https://www.etapasproject.eu/usecases/post-3/</t>
+  </si>
+  <si>
+    <t>Lanekassen - Improve control on students with loan payments and identification</t>
+  </si>
+  <si>
+    <t>https://norwaytoday.info/education/artificial-intelligence-revealed-more-loan-fund-cheating/</t>
+  </si>
+  <si>
+    <t>Nancy - Access to National library assets</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o_6M_ZL7AuU</t>
+  </si>
+  <si>
+    <t>Education n.e.c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway AI for Diagnose and treating Breast cancer </t>
+  </si>
+  <si>
+    <t>https://sciencenorway.no/breast-cancer-cancer-technology/norwegian-researchers-are-developing-a-new-method-for-detecting-breast-cancer/1739574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway Chatbot - Chatbot for public administrations </t>
+  </si>
+  <si>
+    <t>https://www.boost.ai/articles/automation-for-the-people-using-conversational-ai-to-benefit-the-public-sector</t>
+  </si>
+  <si>
+    <t>Posting of invoices - Robot to propose the correct posting</t>
+  </si>
+  <si>
+    <t>https://www.regjeringen.no/en/dokumenter/nasjonal-strategi-for-kunstig-intelligens/id2685594/?ch=6#id0043</t>
+  </si>
+  <si>
+    <t>Statnett - Forecast service for weather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datascience.statnett.no/2018/04/27/from-idea-to-deployment-a-service-for-estimation-of-failure-probability-on-overhead-lines-based-on-the-current-weather-forecast/ </t>
+  </si>
+  <si>
+    <t>Fuel and energy</t>
+  </si>
+  <si>
+    <t>TrondHeim - Insolvency Predicition</t>
+  </si>
+  <si>
+    <t>https://norden.diva-portal.org/smash/get/diva2:1375500/FULLTEXT01.pdf</t>
+  </si>
+  <si>
+    <t>VDI - Protection of digital infrastructure</t>
+  </si>
+  <si>
+    <t>https://www.regjeringen.no/en/dokumenter/nasjonal-strategi-for-kunstig-intelligens/id2685594/?ch=7</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>Military defence.</t>
+  </si>
+  <si>
+    <t>Canard - Speed camera system to flag potential traffic rules infringement</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>https://www.canard.gitd.gov.pl/cms/web/portal/o-projekcie-pois</t>
+  </si>
+  <si>
+    <t>Home Quarantine - app on COVID-19 risk</t>
+  </si>
+  <si>
+    <t>https://www.gov.pl/web/cyfryzacja/aplikacja-kwarantanna-domowa--ruszyl-proces-jej-udostepniania</t>
+  </si>
+  <si>
+    <t>Poland - Fraud Detection COVID-19 support</t>
+  </si>
+  <si>
+    <t>https://www.experian.com.pl/en/business/identity-and-fraud/fraud-prevention-responses</t>
+  </si>
+  <si>
+    <t>State Clearance Chamber - financial risk indicator</t>
+  </si>
+  <si>
+    <t>https://epf.org.pl/en/wp-content/uploads/sites/3/2019/05/alGOVrithms-State-of-Play-Report.pdf</t>
+  </si>
+  <si>
+    <t>CCM-SNS - Verification of medical prescriptions</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>https://algorithmwatch.org/en/story/portugal-automated-verification-prescriptions-medical-fraud/</t>
+  </si>
+  <si>
+    <t>Data2Help - Optimizing the allocation of resources for a better and faster response to medical emergencies</t>
+  </si>
+  <si>
+    <t>https://www.alert-online.com/br/news/health-portal/inteligencia-artificial-vai-ser-aplicada-as-emergencias-medicas</t>
+  </si>
+  <si>
+    <t>Derm.AI</t>
+  </si>
+  <si>
+    <t>https://rse-siga.spms.min-saude.pt/category/rse-siga-derm-ai/</t>
+  </si>
+  <si>
+    <t>EPISA - Entity and property inference for semantic archives</t>
+  </si>
+  <si>
+    <t>https://www.inesctec.pt/en/news/inesc-tec-wants-to-digitise-the-largest-documental-collection-of-portugal#about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failstopper - Study the compressed air system of the vehicle </t>
+  </si>
+  <si>
+    <t>https://www.inesctec.pt/en/projects/failstopper#intro</t>
+  </si>
+  <si>
+    <t>IPOscore - Predicting complications surgery and prognosis  of cancer patients</t>
+  </si>
+  <si>
+    <t>https://www.fct.pt/media/docs/Brochura_ResearchinDataScienceandAIappliedtoPA.pdf</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>Helsinki HUH - Intensive care for premature baby</t>
-  </si>
-  <si>
-    <t>https://www.helsinki.fi/en/news/healthier-world/artificial-intelligence-evaluate-brain-maturity-preterm-infants</t>
-  </si>
-  <si>
-    <t>Hospital services.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamu - chatbot about immigration processes </t>
-  </si>
-  <si>
-    <t>https://migri.fi/en/chat1</t>
-  </si>
-  <si>
-    <t>OuloBot - virtual assistant for business</t>
-  </si>
-  <si>
-    <t>https://www.ouka.fi/oulu/oulubot/</t>
-  </si>
-  <si>
-    <t>PatRek - Chatbot for business</t>
-  </si>
-  <si>
-    <t>https://medium.com/inland/valtionhallinnon-chatbot-verkosto-neuvoo-ulkomaalaisia-yrityksen-perustamisessa-44eb1e0c4443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VeroBot - Chatbot for citizens about tax management </t>
-  </si>
-  <si>
-    <t>https://www.vero.fi/en/e-file/mytax/</t>
-  </si>
-  <si>
-    <t>Aria - Chatbot answering retired people</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lassuranceretraite.fr/portail-info/sites/pub/hors-menu/actualites-nationales/retraite/2018/page-9.html </t>
-  </si>
-  <si>
-    <t>ClaudIA - chatbot for the invoicing portal for purchases by public authorities</t>
-  </si>
-  <si>
-    <t>https://www.cio-online.com/actualites/lire-chorus-pro-aussi-aide-ses-utilisateurs-avec-un-chatbot-10199.html</t>
-  </si>
-  <si>
-    <t>Datakalab - Covid-19 Mask wearing  detection In some French cities</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/news/world-europe-52529981</t>
-  </si>
-  <si>
-    <t>French Fraud - fraud detection value declarations</t>
-  </si>
-  <si>
-    <t>https://www.aiforhumanity.fr/pdfs/MissionVillani_Report_ENG-VF.pdf</t>
-  </si>
-  <si>
-    <t>IAlim - Targeting restaurant health inspections</t>
-  </si>
-  <si>
-    <t>https://agriculture.gouv.fr/telecharger/116478?token=34e41e9143e50e1be2324f7d9bf7f7fceffe7183e5e97acb34d333c90a70b5a6</t>
-  </si>
-  <si>
-    <t>LaBonneBo√Æte - identification of companies with a high probability of hiring</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/social/BlobServlet?docId=20605&amp;langId=en</t>
-  </si>
-  <si>
-    <t>Searching</t>
-  </si>
-  <si>
-    <t>OpenJustice - Open case law, pseudonymization and enrichment of court decisions</t>
-  </si>
-  <si>
-    <t>https://entrepreneur-interet-general.etalab.gouv.fr/defis/2019/openjustice.html</t>
-  </si>
-  <si>
-    <t>Law courts</t>
-  </si>
-  <si>
-    <t>RenoiRH - Chatbot in HR management rules to facilitate access</t>
-  </si>
-  <si>
-    <t>https://www.soprahr.com/docs/librariesprovider45/Documents/customer-testimonials---temoignage-clients/t%C3%A9moignage_le-cisirh-innove-avec-son-chatbot-rh-docx.pdf?sfvrsn=7eb4345b_2</t>
-  </si>
-  <si>
-    <t>SignauxFaibles - predictive analysis of business difficulties</t>
-  </si>
-  <si>
-    <t>https://beta.gouv.fr/startups/signaux-faibles.html</t>
-  </si>
-  <si>
-    <t>C-19 - Interdepartmental chatbot on the topic of Corona.</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>https://chatbot.it.bund.de/</t>
-  </si>
-  <si>
-    <t>Germany's Federal Office for Migrants and Refugees - Refugee Language Detection</t>
-  </si>
-  <si>
-    <t>https://www.dw.com/en/automatic-speech-analysis-software-used-to-verify-refugees-dialects/a-37980819</t>
-  </si>
-  <si>
-    <t>Public order and safety n.e.c.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Govbot -  administrative search engine for citizens' enquiries </t>
-  </si>
-  <si>
-    <t>https://publicplan.de/projekt/verwaltungssuchmaschine-nrw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERTH-MUKA - Public Organizations Multi-factor Misinformation Handling </t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>https://www.etapasproject.eu/usecases/post-4/</t>
-  </si>
-  <si>
-    <t>Home Quarantine App - Supporting the use of electronic control for home quarantine</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>https://metamorphosis.org.mk/wp-content/uploads/2021/04/algovrithms_2.0_report-2021.pdf</t>
-  </si>
-  <si>
-    <t>V√©da-KAFIR-ROBOTZSARU (‚ÄòRobocop‚Äô) - System Operated by the Police for Traffic Safety Automated Processing</t>
-  </si>
-  <si>
-    <t>The Dublin Beat - citizen opinion analysis</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>https://smartdublin.ie/smart-dublin-explores-how-ai-social-media-can-help-improve-the-city-region/</t>
-  </si>
-  <si>
-    <t>R&amp;D general public services.</t>
-  </si>
-  <si>
-    <t>VDA - voicebot on calls from Irish taxpayer on tax clearance</t>
-  </si>
-  <si>
-    <t>https://www.ops2020.gov.ie/actions/innovating-for-our-future/innovation/emerging-technology/artificial-intelligence/revenue-chatbot/</t>
-  </si>
-  <si>
-    <t>Borbot - virtual assistant for museums</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>https://borbot.it/</t>
-  </si>
-  <si>
-    <t>Recreation, culture and religion</t>
-  </si>
-  <si>
-    <t>Cultural services.</t>
-  </si>
-  <si>
-    <t>Noovle - Management of health documentation</t>
-  </si>
-  <si>
-    <t>https://www.noovle.ch/project/arsenal-it-centro-veneto-ricerca-e-innovazione-per-la-sanita-digitale/</t>
-  </si>
-  <si>
-    <t>R&amp;D health.</t>
-  </si>
-  <si>
-    <t>Pierino - PIatform for the extraction and retrieval of online information</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/323280575_NLP_and_Public_Engagement_the_Case_of_the_Italian_School_Reform</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>R&amp;D education.</t>
-  </si>
-  <si>
-    <t>R1 - humanoid robot</t>
-  </si>
-  <si>
-    <t>https://www.dongnocchi.it/news-ed-eventi/@news/robot-e-realta-virtuale-a-technology-hub-ecco-la-riabilitazione-innovativa</t>
-  </si>
-  <si>
-    <t>Automated reasoning</t>
-  </si>
-  <si>
-    <t>Medical products, appliances and equipment.</t>
-  </si>
-  <si>
-    <t>Smart Planner - navigation planning assistant</t>
-  </si>
-  <si>
-    <t>https://www.smartcommunitylab.it/app/</t>
-  </si>
-  <si>
-    <t>Planning and Scheduling</t>
-  </si>
-  <si>
-    <t>TALIA SF - Extract and organize knowledge coming from the analysis of a huge quantity of textual documents</t>
-  </si>
-  <si>
-    <t>https://social-and-creative.interreg-med.eu/no-cache/press-room/news/detail/actualites/the-sc-community-tools-the-semantic-framework/</t>
-  </si>
-  <si>
-    <t>Toscana Open Research - Allows users to access information through "queries" without having to know the technical terms</t>
-  </si>
-  <si>
-    <t>http://www.toscanaopenresearch.it/explore-the-data/#/</t>
-  </si>
-  <si>
-    <t>Knowledge representation</t>
-  </si>
-  <si>
-    <t>Automatic decision making of the Electronic Declaration System of the State Revenue Service</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>https://www.vid.gov.lv/en/electronic-declaration-system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITS ITEMS - road safety </t>
-  </si>
-  <si>
-    <t>https://investinlatvia.org/en/key-sectors/sectors/smart-city</t>
-  </si>
-  <si>
-    <t>Hugo - virtual Asssistant</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/cefdigital/wiki/download/attachments/61932141/2_04_Janis%20Ziedins_Artus%20Vasiljevskis_Hugo.lv-AI_powered_service.pdf?version=1&amp;modificationDate=1544438787726&amp;api=v2</t>
-  </si>
-  <si>
-    <t>LAA - Pilot lung cancer risk assessment</t>
-  </si>
-  <si>
-    <t>https://issuu.com/rigastehniskauniversitate/docs/innovation_2018_rudens_new_eng_link/5</t>
-  </si>
-  <si>
-    <t>Toms - chatbot facilitating customer communication with the State Revenue service</t>
-  </si>
-  <si>
-    <t>https://www.vid.gov.lv/</t>
-  </si>
-  <si>
-    <t>UNA - chatbot regarding the process of enterprise registration</t>
-  </si>
-  <si>
-    <t>https://oecd-opsi.org/innovations/una-the-first-virtual-assistant-of-public-administration-in-latvia/</t>
-  </si>
-  <si>
-    <t>VARIS - Reviews all the applicants to Rural Support Service</t>
-  </si>
-  <si>
-    <t>https://www.lad.gov.lv/en/news/the-robot-varis-has-started-work-at-the-rural-support-service-of-latvia-892</t>
-  </si>
-  <si>
-    <t>FCIS - machine learning to identify suspicious patterns (trade, financial flows)</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>http://www.fntt.lt/lt/ivykiai/fntt-kartu-su-partneriais-pradeda-igyvendinti-europos-sajungos-moksliniu-tyrimu-ir-inovaciju-lesomis-remiama-projekta/3768</t>
-  </si>
-  <si>
-    <t>viLTe' - chatbot answering relevant questions regarding the COVID-19</t>
-  </si>
-  <si>
-    <t>https://koronastop.lrv.lt/</t>
-  </si>
-  <si>
-    <t>Amberscript - Automated speech translation for public organisations</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>https://www.amberscript.com/en/news/amberscript-makes-council-meetings-of-dutch-municipalities-accessible-to-the-deaf-and-hearing-impaired</t>
-  </si>
-  <si>
-    <t>ANPR - car plate recognition</t>
-  </si>
-  <si>
-    <t>https://www.politie.nl/onderwerpen/anpr.html</t>
-  </si>
-  <si>
-    <t>Cameras - Detection holding a phone in car</t>
-  </si>
-  <si>
-    <t>https://www.om.nl/actueel/nieuws/2020/11/12/openbaar-ministerie-start-digitale-handhaving-op-handheld-telefoongebruik-achter-het-stuur</t>
-  </si>
-  <si>
-    <t>CAS - crime anticipation system</t>
-  </si>
-  <si>
-    <t>http://ceur-ws.org/Vol-2103/paper_6.pdf</t>
-  </si>
-  <si>
-    <t>Rotterdam ‚Äì Improving the usage of rooftops</t>
-  </si>
-  <si>
-    <t>http://www.dssgfellowship.org/project/identifying-rooftop-usage-in-rotterdam/?portfolioID=15901</t>
-  </si>
-  <si>
-    <t>Housing and community amenities n.e.c.</t>
-  </si>
-  <si>
-    <t>RWS - Machine learning for road accident predictions</t>
-  </si>
-  <si>
-    <t>http://www.dssgfellowship.org/project/rijkswaterstaat-netherlands/</t>
-  </si>
-  <si>
-    <t>https://algoritmeregister.amsterdam.nl/vakantieverhuur-woningfraude/</t>
-  </si>
-  <si>
-    <t>Housing.</t>
-  </si>
-  <si>
-    <t>SIA - Notificiations public space</t>
-  </si>
-  <si>
-    <t>https://tada.city/en/nieuws/algorithms-for-more-fairness-in-the-city/</t>
-  </si>
-  <si>
-    <t>Optimisation</t>
-  </si>
-  <si>
-    <t>SyRi - detect welfare fraud</t>
-  </si>
-  <si>
-    <t>https://algorithmwatch.org/en/story/syri-netherlands-algorithm/</t>
-  </si>
-  <si>
-    <t>Social protection n.e.c.</t>
-  </si>
-  <si>
-    <t>Xomnia - The Burglary Predictor</t>
-  </si>
-  <si>
-    <t>https://www.xomnia.com/burglary-prediction-for-the-municipality-of-utrecht/</t>
-  </si>
-  <si>
-    <t>Xoomia - Law enforcement optimization system</t>
-  </si>
-  <si>
-    <t>https://www.xomnia.com/law-enforcement-optimization-at-amsterdam/</t>
-  </si>
-  <si>
-    <t>HAL - classification of documents</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>https://www.regjeringen.no/en/dokumenter/nasjonal-strategi-for-kunstig-intelligens/id2685594/?ch=4#id0022</t>
-  </si>
-  <si>
-    <t>Foreign economic aid.</t>
-  </si>
-  <si>
-    <t>Kari - Chatbot</t>
-  </si>
-  <si>
-    <t>https://www.etapasproject.eu/usecases/post-3/</t>
-  </si>
-  <si>
-    <t>Lanekassen - Improve control on students with loan payments and identification</t>
-  </si>
-  <si>
-    <t>https://norwaytoday.info/education/artificial-intelligence-revealed-more-loan-fund-cheating/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway Chatbot - chatbot for public administrations </t>
-  </si>
-  <si>
-    <t>https://www.boost.ai/articles/automation-for-the-people-using-conversational-ai-to-benefit-the-public-sector</t>
-  </si>
-  <si>
-    <t>TrondHeim - Insolvency Predicition</t>
-  </si>
-  <si>
-    <t>https://norden.diva-portal.org/smash/get/diva2:1375500/FULLTEXT01.pdf</t>
-  </si>
-  <si>
-    <t>VDI - Protection of digital infrastructure</t>
-  </si>
-  <si>
-    <t>https://www.regjeringen.no/en/dokumenter/nasjonal-strategi-for-kunstig-intelligens/id2685594/?ch=7</t>
-  </si>
-  <si>
-    <t>Defence</t>
-  </si>
-  <si>
-    <t>Military defence.</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>https://www.experian.com.pl/en/business/identity-and-fraud/fraud-prevention-responses</t>
-  </si>
-  <si>
-    <t>Home Quarantine - app on COVID-19 risk</t>
-  </si>
-  <si>
-    <t>https://www.gov.pl/web/cyfryzacja/aplikacja-kwarantanna-domowa--ruszyl-proces-jej-udostepniania</t>
-  </si>
-  <si>
-    <t>State Clearance Chamber - financial risk indicator</t>
-  </si>
-  <si>
-    <t>https://epf.org.pl/en/wp-content/uploads/sites/3/2019/05/alGOVrithms-State-of-Play-Report.pdf</t>
-  </si>
-  <si>
-    <t>CCM-SNS - verification of medical prescriptions</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>https://algorithmwatch.org/en/story/portugal-automated-verification-prescriptions-medical-fraud/</t>
-  </si>
-  <si>
-    <t>Sigma - chatbot on changing citizens' address</t>
+    <t>Portugal -  Predicting long term unemployment</t>
+  </si>
+  <si>
+    <t>https://online.ucpress.edu/gp/article-abstract/1/1/12908/110741</t>
+  </si>
+  <si>
+    <t>Sigma - Chatbot on changing citizens' address</t>
   </si>
   <si>
     <t>https://joinup.ec.europa.eu/sites/default/files/news/2019-09/ISA2_Architecture%20for%20public%20service%20chatbots.pdf</t>
   </si>
   <si>
-    <t>Antonia - automatic processing of requests of public services</t>
+    <t>Antonia - Automatic processing of requests of public services</t>
   </si>
   <si>
     <t>Romania</t>
@@ -819,7 +924,7 @@
     <t>https://www.romaniajournal.ro/society-people/antonia-the-first-virtual-public-servant-in-romania/</t>
   </si>
   <si>
-    <t xml:space="preserve">Bucharest airport - face recognition </t>
+    <t xml:space="preserve">Bucharest airport - Face recognition </t>
   </si>
   <si>
     <t>https://www.uti.eu.com/press-releases/uti-will-implement-face-recognition-and-intelligent-image-analysis-systems-with-otopeni-airport/</t>
@@ -834,19 +939,19 @@
     <t>https://stopbyrokracii.sk/</t>
   </si>
   <si>
-    <t>PCA - AI algorithms in audit methodology</t>
+    <t>PCA - AI algorithms in audit methodology detecting potential fraud when prescribing medicines</t>
   </si>
   <si>
     <t>https://dennikn.sk/blog/1561696/big-data-ukazali-nestandardne-predpisovanie-liekov-usporime-tak-statisice-eur/</t>
   </si>
   <si>
-    <t>Taxana - chatbot for financial administration</t>
+    <t>Taxana - Chatbot for financial administration</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=UQ_XRlIFtrQ &amp; https://www.podnikajte.sk/dane/taxana-chatbot</t>
   </si>
   <si>
-    <t>Semantic analyser - document analyser for the public administration</t>
+    <t>Semantic analyser - Document analyser for the public administration</t>
   </si>
   <si>
     <t>Slovenia</t>
@@ -855,7 +960,7 @@
     <t>https://nio.gov.si/nio/asset/semanticni+analizator+besedil</t>
   </si>
   <si>
-    <t>060 Service - answer FAQ from citizens and burocratic terms into informal language</t>
+    <t>060 Service - Answer FAQ from citizens and burocratic terms into informal language</t>
   </si>
   <si>
     <t>Spain</t>
@@ -864,6 +969,12 @@
     <t>https://joinup.ec.europa.eu/sites/default/files/inline-files/08-2%20Salvador_Estevan_Martinez%20and%20Doaa_Samy_0.pdf</t>
   </si>
   <si>
+    <t>Chatbot  - Boost relations with citizens</t>
+  </si>
+  <si>
+    <t>https://avanttic.com/actualidad/el-chatbot-del-ayuntamiento-de-sant-just-desvern-premiado-en-oracle-openworld/</t>
+  </si>
+  <si>
     <t>Fuengirola Town Hall - measuring beach attendance</t>
   </si>
   <si>
@@ -891,28 +1002,70 @@
     <t>Old age.</t>
   </si>
   <si>
-    <t>VeriPol - detect false police reports</t>
+    <t>Robots - Testing  Covid-19</t>
+  </si>
+  <si>
+    <t>https://www.computerweekly.com/news/252480445/Coronavirus-Spain-to-use-Artificial-intelligence-to-automate-testing</t>
+  </si>
+  <si>
+    <t>VeriPol - Detect false police reports</t>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/S095070511830128X</t>
   </si>
   <si>
-    <t>Skatti - Answering system about population registration and the income tax return</t>
+    <t>VioGen - Forecast gender violence</t>
+  </si>
+  <si>
+    <t>https://algorithmwatch.org/en/viogen-algorithm-gender-violence/</t>
+  </si>
+  <si>
+    <t>AIDA - Interpreting detailed plan provisions</t>
   </si>
   <si>
     <t>Sweden</t>
   </si>
   <si>
+    <t>https://www.smartbuilt.se/projekt/innovationer-och-nya-tillaempningar/aida/</t>
+  </si>
+  <si>
+    <t>Scapis - Prevention of heart- and lung-diseases</t>
+  </si>
+  <si>
+    <t>https://www.scapis.org/about/</t>
+  </si>
+  <si>
+    <t>Skatti - Answering system about population registration and income tax return</t>
+  </si>
+  <si>
     <t>https://www.skatteverket.se/omoss/kontaktaoss/chattamedvardigitalamedarbetare.4.2cf1b5cd163796a5c8b403b.html</t>
   </si>
   <si>
-    <t>Tengai - robot in recruitment processes</t>
+    <t>SKOSA - Interpreting medical information</t>
+  </si>
+  <si>
+    <t>https://computersweden.idg.se/2.2683/1.720144/forsakringskassan-ai-stod</t>
+  </si>
+  <si>
+    <t>Stockholm3 - Diagnosing prostate cancer</t>
+  </si>
+  <si>
+    <t>https://eithealth.eu/news-article/study-ai-system-effective-in-diagnosing-prostate-cancer/</t>
+  </si>
+  <si>
+    <t>Swedish Land Registry (SLR) - Fostering efficiency when dealing with land registry requests</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/case-studies/natural-language-processing-for-land-registry-documentation-in-sweden</t>
+  </si>
+  <si>
+    <t>Tengai - Robot in recruitment processes</t>
   </si>
   <si>
     <t>https://www.upplands-bro.se/kommun--politik/om-kommunen/information-om-coronaviruset/nyheter-corona/2020-05-05-kommunen-tar-nasta-steg-i-fordomsfri-rekrytering-med-intervjuroboten-tengai.html</t>
   </si>
   <si>
-    <t>Trelleborg - automated social welfare decisions</t>
+    <t>Trelleborg - Automated social welfare decisions</t>
   </si>
   <si>
     <t>https://valcon.com/insights/trelleborg-robotics-solution/</t>
@@ -921,16 +1074,34 @@
     <t>Social exclusion n.e.c.</t>
   </si>
   <si>
-    <t>Maxi - chatbot answering questions on insurance</t>
+    <t>BFS - Plausibility check on quality and reliability of administrative data</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
+    <t>https://www.experimental.bfs.admin.ch/expstat/de/home/innovative-datenwissenschaft/plausi.html</t>
+  </si>
+  <si>
+    <t>Chatbot - Offer residents and tourism better access to information and services from the administration</t>
+  </si>
+  <si>
+    <t>https://www.egovernment.ch/de/dokumentation/webpublikation/projekte/leistungen-fur-die-bevolkerung/chatbot-fur-die-offentliche-verwaltung/</t>
+  </si>
+  <si>
+    <t>Chatbot - Security institution information, find the ones entitled to premium reductions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.leaderdigital.ch/news/sva-will-chatbot-angebot-ausbauen-2718.html </t>
+  </si>
+  <si>
+    <t>Maxi - Chatbot answering questions on insurance</t>
+  </si>
+  <si>
     <t>https://www.previon.ch/projekte/maxi-der-clevere-chatbot-der-sva-aargau</t>
   </si>
   <si>
-    <t xml:space="preserve">NOGAuto - assign or control codes to companies for economic activities </t>
+    <t xml:space="preserve">NOGAuto - Assign or control codes to companies for economic activities </t>
   </si>
   <si>
     <t>https://www.experimental.bfs.admin.ch/expstat/en/home/innovation-data-science/nogauto.html</t>
@@ -939,7 +1110,13 @@
     <t>R&amp;D economic affairs</t>
   </si>
   <si>
-    <t>Amelia - chatbot helping local residents find city services</t>
+    <t>Refugees - Assigning asylum seekers</t>
+  </si>
+  <si>
+    <t>https://www.srf.ch/news/schweiz/jobs-fuer-fluechtlinge-algorithmus-verteilt-neu-asylbewerber-auf-kantone</t>
+  </si>
+  <si>
+    <t>Amelia - Chatbot helping local residents find city services</t>
   </si>
   <si>
     <t>United Kingdom</t>
@@ -948,7 +1125,7 @@
     <t>https://www.ukauthority.com/articles/enfield-joins-microsoft-in-citizenbot-project/</t>
   </si>
   <si>
-    <t>Babylon - health interactive symptom checker</t>
+    <t>Babylon - Health interactive symptom checker</t>
   </si>
   <si>
     <t>https://www.babylonhealth.com/</t>
@@ -960,82 +1137,22 @@
     <t>https://www.gov.uk/government/case-studies/how-the-department-for-transport-used-ai-to-improve-mot-testing</t>
   </si>
   <si>
-    <t>EHPS - early help profiling system to identify children and families considered vulnerable</t>
+    <t>EHPS - Early help profiling system to identify children and families considered vulnerable</t>
   </si>
   <si>
     <t>https://www.hackneycitizen.co.uk/2018/10/18/council-360k-xantura-software-profiles-troubled-families/</t>
   </si>
   <si>
-    <t>HART - assessment risk tool, predictive policing based on person data</t>
+    <t>HART - Assessment risk tool, predictive policing based on person data</t>
   </si>
   <si>
     <t>https://www.tandfonline.com/doi/pdf/10.1080/13600834.2018.1458455</t>
   </si>
   <si>
-    <t>Case Fiva (RPA) - Support the Financial supervisory Authority</t>
-  </si>
-  <si>
-    <t>SHAP - Holiday rental home fraud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway AI for Diagnose and treating Breast cancer </t>
-  </si>
-  <si>
-    <t>https://sciencenorway.no/breast-cancer-cancer-technology/norwegian-researchers-are-developing-a-new-method-for-detecting-breast-cancer/1739574</t>
-  </si>
-  <si>
-    <t>Statnett - Forecast service for weather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datascience.statnett.no/2018/04/27/from-idea-to-deployment-a-service-for-estimation-of-failure-probability-on-overhead-lines-based-on-the-current-weather-forecast/ </t>
-  </si>
-  <si>
-    <t>Fuel and energy</t>
-  </si>
-  <si>
-    <t>Canard - Speed camera system to flag potential traffic rules infringement</t>
-  </si>
-  <si>
-    <t>https://www.canard.gitd.gov.pl/cms/web/portal/o-projekcie-pois</t>
-  </si>
-  <si>
-    <t>Poland - Fraud Detection COVID-19 support</t>
-  </si>
-  <si>
-    <t>Data2Help - optimizing the allocation of resources for a better and faster response to medical emergencies</t>
-  </si>
-  <si>
-    <t>https://www.alert-online.com/br/news/health-portal/inteligencia-artificial-vai-ser-aplicada-as-emergencias-medicas</t>
-  </si>
-  <si>
-    <t>Derm.AI</t>
-  </si>
-  <si>
-    <t>https://rse-siga.spms.min-saude.pt/category/rse-siga-derm-ai/</t>
-  </si>
-  <si>
-    <t>EPISA - Entity and property inference for semantic archives</t>
-  </si>
-  <si>
-    <t>https://www.inesctec.pt/en/news/inesc-tec-wants-to-digitise-the-largest-documental-collection-of-portugal#about</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failstopper - Study the compressed air system of the vehicle </t>
-  </si>
-  <si>
-    <t>https://www.inesctec.pt/en/projects/failstopper#intro</t>
-  </si>
-  <si>
-    <t>IPOscore - Predicting complications surgery and prognosis  of cancer patients</t>
-  </si>
-  <si>
-    <t>https://www.fct.pt/media/docs/Brochura_ResearchinDataScienceandAIappliedtoPA.pdf</t>
-  </si>
-  <si>
-    <t>Portugal -  Predicting long term unemployment</t>
-  </si>
-  <si>
-    <t>https://online.ucpress.edu/gp/article-abstract/1/1/12908/110741</t>
+    <t>TravelBot - Chatbot for travel information</t>
+  </si>
+  <si>
+    <t>https://tfl.gov.uk/info-for/media/press-releases/2017/june/tfl-launches-new-social-media-travelb</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1208,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue_1" connectionId="1" xr16:uid="{B6E698B2-EBEB-5944-AA96-59044B4BAA84}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export-JRC-Data-Catalogue" connectionId="1" xr16:uid="{815AA857-9957-E94D-A0C5-245D3FFEED1B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1390,8 +1507,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C2D1B1-08A8-6C41-8005-AA19C36CFBAC}">
-  <dimension ref="A1:G123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DD00B6-38AC-7947-BB16-C784E42F7C55}">
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1598,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -2144,7 +2261,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
         <v>99</v>
@@ -2153,10 +2270,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -2167,7 +2284,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
         <v>99</v>
@@ -2176,7 +2293,7 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -2185,12 +2302,12 @@
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
@@ -2199,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -2213,7 +2330,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
         <v>99</v>
@@ -2222,7 +2339,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -2236,7 +2353,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
         <v>99</v>
@@ -2245,7 +2362,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -2259,7 +2376,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
         <v>99</v>
@@ -2268,7 +2385,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -2282,16 +2399,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -2305,16 +2422,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -2328,16 +2445,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -2351,16 +2468,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
         <v>32</v>
@@ -2374,16 +2491,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -2397,19 +2514,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
         <v>41</v>
@@ -2420,16 +2537,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
         <v>32</v>
@@ -2438,21 +2555,21 @@
         <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -2466,16 +2583,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
         <v>32</v>
@@ -2489,48 +2606,48 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2538,22 +2655,22 @@
         <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2561,68 +2678,68 @@
         <v>144</v>
       </c>
       <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
         <v>145</v>
       </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" t="s">
-        <v>146</v>
-      </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
         <v>147</v>
       </c>
-      <c r="B52" t="s">
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
         <v>148</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
         <v>150</v>
       </c>
-      <c r="B53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>149</v>
-      </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2630,361 +2747,361 @@
         <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
         <v>158</v>
       </c>
-      <c r="C57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" t="s">
-        <v>163</v>
-      </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
         <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
         <v>158</v>
       </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>166</v>
-      </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E60" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="G61" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
         <v>182</v>
       </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
-        <v>187</v>
-      </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
         <v>33</v>
@@ -2995,62 +3112,62 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
         <v>197</v>
       </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>200</v>
-      </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="F71" t="s">
         <v>52</v>
       </c>
       <c r="G71" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -3064,62 +3181,62 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E75" t="s">
         <v>32</v>
@@ -3128,159 +3245,159 @@
         <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E78" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E79" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E80" t="s">
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G81" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -3289,274 +3406,274 @@
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B85" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="E86" t="s">
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
         <v>235</v>
       </c>
-      <c r="B87" t="s">
-        <v>228</v>
-      </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" t="s">
-        <v>236</v>
-      </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="B88" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" t="s">
         <v>237</v>
-      </c>
-      <c r="B89" t="s">
-        <v>228</v>
       </c>
       <c r="C89" t="s">
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E90" t="s">
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="G91" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E92" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
         <v>52</v>
       </c>
       <c r="G92" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E94" t="s">
         <v>32</v>
@@ -3570,338 +3687,338 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E95" t="s">
         <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="B96" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="E96" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="B97" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="G97" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F98" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G99" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>328</v>
+        <v>269</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>329</v>
+        <v>270</v>
       </c>
       <c r="E101" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G104" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="G105" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B106" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E106" t="s">
         <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="B109" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -3910,113 +4027,113 @@
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="E110" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>274</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E112" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B113" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="E113" t="s">
         <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G113" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B114" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -4030,62 +4147,62 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B115" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E115" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="E116" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>290</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B117" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -4099,42 +4216,42 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B118" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="E118" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="G118" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="B119" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
         <v>12</v>
@@ -4145,85 +4262,85 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B120" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>316</v>
       </c>
       <c r="F120" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>172</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="B121" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E121" t="s">
         <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G121" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B122" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E122" t="s">
         <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="B123" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="E123" t="s">
         <v>32</v>
@@ -4233,6 +4350,466 @@
       </c>
       <c r="G123" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>324</v>
+      </c>
+      <c r="B124" t="s">
+        <v>325</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>326</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>327</v>
+      </c>
+      <c r="B125" t="s">
+        <v>325</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>328</v>
+      </c>
+      <c r="E125" t="s">
+        <v>32</v>
+      </c>
+      <c r="F125" t="s">
+        <v>52</v>
+      </c>
+      <c r="G125" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>329</v>
+      </c>
+      <c r="B126" t="s">
+        <v>325</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>330</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>331</v>
+      </c>
+      <c r="B127" t="s">
+        <v>325</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>332</v>
+      </c>
+      <c r="E127" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G127" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>333</v>
+      </c>
+      <c r="B128" t="s">
+        <v>325</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>334</v>
+      </c>
+      <c r="E128" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" t="s">
+        <v>52</v>
+      </c>
+      <c r="G128" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>335</v>
+      </c>
+      <c r="B129" t="s">
+        <v>325</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>336</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>337</v>
+      </c>
+      <c r="B130" t="s">
+        <v>325</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>338</v>
+      </c>
+      <c r="E130" t="s">
+        <v>66</v>
+      </c>
+      <c r="F130" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>339</v>
+      </c>
+      <c r="B131" t="s">
+        <v>325</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>340</v>
+      </c>
+      <c r="E131" t="s">
+        <v>104</v>
+      </c>
+      <c r="F131" t="s">
+        <v>41</v>
+      </c>
+      <c r="G131" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>342</v>
+      </c>
+      <c r="B132" t="s">
+        <v>343</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>344</v>
+      </c>
+      <c r="E132" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>345</v>
+      </c>
+      <c r="B133" t="s">
+        <v>343</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>346</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>347</v>
+      </c>
+      <c r="B134" t="s">
+        <v>343</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>348</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>349</v>
+      </c>
+      <c r="B135" t="s">
+        <v>343</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>350</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>351</v>
+      </c>
+      <c r="B136" t="s">
+        <v>343</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>352</v>
+      </c>
+      <c r="E136" t="s">
+        <v>284</v>
+      </c>
+      <c r="F136" t="s">
+        <v>33</v>
+      </c>
+      <c r="G136" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>354</v>
+      </c>
+      <c r="B137" t="s">
+        <v>343</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>355</v>
+      </c>
+      <c r="E137" t="s">
+        <v>228</v>
+      </c>
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>356</v>
+      </c>
+      <c r="B138" t="s">
+        <v>357</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>358</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>359</v>
+      </c>
+      <c r="B139" t="s">
+        <v>357</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>360</v>
+      </c>
+      <c r="E139" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" t="s">
+        <v>52</v>
+      </c>
+      <c r="G139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>361</v>
+      </c>
+      <c r="B140" t="s">
+        <v>357</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>362</v>
+      </c>
+      <c r="E140" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" t="s">
+        <v>33</v>
+      </c>
+      <c r="G140" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>363</v>
+      </c>
+      <c r="B141" t="s">
+        <v>357</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>364</v>
+      </c>
+      <c r="E141" t="s">
+        <v>32</v>
+      </c>
+      <c r="F141" t="s">
+        <v>52</v>
+      </c>
+      <c r="G141" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>365</v>
+      </c>
+      <c r="B142" t="s">
+        <v>357</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>366</v>
+      </c>
+      <c r="E142" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>367</v>
+      </c>
+      <c r="B143" t="s">
+        <v>357</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>368</v>
+      </c>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" t="s">
+        <v>33</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
